--- a/Lab/aima-python-master/results_heuristics_weighted.xlsx
+++ b/Lab/aima-python-master/results_heuristics_weighted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,277 +479,291 @@
           <t>Dummy Nodes</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1506462097167969</v>
+        <v>4.753402948379517</v>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>8198</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003766155242919922</v>
+        <v>0.0005798247070480016</v>
       </c>
       <c r="D2" t="n">
-        <v>1857</v>
+        <v>10335</v>
       </c>
       <c r="E2" t="n">
-        <v>1535</v>
+        <v>5968</v>
       </c>
       <c r="F2" t="n">
-        <v>2998</v>
+        <v>1799</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>802</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
-      </c>
+        <v>2842</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1492605209350586</v>
+        <v>3.749622106552124</v>
       </c>
       <c r="B3" t="n">
-        <v>400</v>
+        <v>9664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003731513023376465</v>
+        <v>0.0003879989762574632</v>
       </c>
       <c r="D3" t="n">
-        <v>1857</v>
+        <v>10615</v>
       </c>
       <c r="E3" t="n">
-        <v>1535</v>
+        <v>6312</v>
       </c>
       <c r="F3" t="n">
-        <v>2998</v>
+        <v>1799</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2587</v>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
-      </c>
+        <v>4352</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1510064601898193</v>
+        <v>0.5204720497131348</v>
       </c>
       <c r="B4" t="n">
-        <v>400</v>
+        <v>9485</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003775161504745483</v>
+        <v>5.487317340149022e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>1857</v>
+        <v>11090</v>
       </c>
       <c r="E4" t="n">
-        <v>1535</v>
+        <v>5893</v>
       </c>
       <c r="F4" t="n">
-        <v>2998</v>
+        <v>1799</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
-      </c>
+        <v>3737</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1470344066619873</v>
+        <v>0.1395208835601807</v>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>2318</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003675860166549682</v>
+        <v>6.019019998282168e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>1857</v>
+        <v>5832</v>
       </c>
       <c r="E5" t="n">
-        <v>1535</v>
+        <v>4772</v>
       </c>
       <c r="F5" t="n">
-        <v>2998</v>
+        <v>1799</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>30</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1494071483612061</v>
+        <v>16.16906213760376</v>
       </c>
       <c r="B6" t="n">
-        <v>400</v>
+        <v>182465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003735178709030151</v>
+        <v>8.861459533392025e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>1857</v>
+        <v>378875</v>
       </c>
       <c r="E6" t="n">
-        <v>1535</v>
+        <v>354459</v>
       </c>
       <c r="F6" t="n">
-        <v>2998</v>
+        <v>2085</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3803</v>
       </c>
       <c r="I6" t="n">
-        <v>30</v>
-      </c>
+        <v>79612</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1596353054046631</v>
+        <v>3.660804033279419</v>
       </c>
       <c r="B7" t="n">
-        <v>400</v>
+        <v>8198</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003990882635116577</v>
+        <v>0.0004465484305049303</v>
       </c>
       <c r="D7" t="n">
-        <v>1857</v>
+        <v>10335</v>
       </c>
       <c r="E7" t="n">
-        <v>1535</v>
+        <v>5968</v>
       </c>
       <c r="F7" t="n">
-        <v>2998</v>
+        <v>1799</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>802</v>
       </c>
       <c r="I7" t="n">
-        <v>30</v>
-      </c>
+        <v>2842</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.158043384552002</v>
+        <v>3.608107089996338</v>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>9664</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003951084613800049</v>
+        <v>0.0003733554521933297</v>
       </c>
       <c r="D8" t="n">
-        <v>1857</v>
+        <v>10615</v>
       </c>
       <c r="E8" t="n">
-        <v>1535</v>
+        <v>6312</v>
       </c>
       <c r="F8" t="n">
-        <v>2998</v>
+        <v>1799</v>
       </c>
       <c r="G8" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2587</v>
       </c>
       <c r="I8" t="n">
-        <v>30</v>
-      </c>
+        <v>4352</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1581015586853027</v>
+        <v>0.5015461444854736</v>
       </c>
       <c r="B9" t="n">
-        <v>400</v>
+        <v>9485</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003952538967132568</v>
+        <v>5.287782229683433e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>1857</v>
+        <v>11090</v>
       </c>
       <c r="E9" t="n">
-        <v>1535</v>
+        <v>5893</v>
       </c>
       <c r="F9" t="n">
-        <v>2998</v>
+        <v>1799</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>30</v>
-      </c>
+        <v>3737</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.19390869140625</v>
+        <v>0.2121779918670654</v>
       </c>
       <c r="B10" t="n">
-        <v>400</v>
+        <v>2318</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000484771728515625</v>
+        <v>9.153494040857008e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>1857</v>
+        <v>5832</v>
       </c>
       <c r="E10" t="n">
-        <v>1535</v>
+        <v>4772</v>
       </c>
       <c r="F10" t="n">
-        <v>2998</v>
+        <v>1799</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>30</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1459987163543701</v>
+        <v>0.1506462097167969</v>
       </c>
       <c r="B11" t="n">
         <v>400</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003649967908859253</v>
+        <v>0.0003766155242919922</v>
       </c>
       <c r="D11" t="n">
         <v>1857</v>
@@ -769,16 +783,17 @@
       <c r="I11" t="n">
         <v>30</v>
       </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1499552726745605</v>
+        <v>0.1492605209350586</v>
       </c>
       <c r="B12" t="n">
         <v>400</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003748881816864014</v>
+        <v>0.0003731513023376465</v>
       </c>
       <c r="D12" t="n">
         <v>1857</v>
@@ -798,16 +813,17 @@
       <c r="I12" t="n">
         <v>30</v>
       </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1589932441711426</v>
+        <v>0.1510064601898193</v>
       </c>
       <c r="B13" t="n">
         <v>400</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003974831104278564</v>
+        <v>0.0003775161504745483</v>
       </c>
       <c r="D13" t="n">
         <v>1857</v>
@@ -827,16 +843,17 @@
       <c r="I13" t="n">
         <v>30</v>
       </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.160797119140625</v>
+        <v>0.1470344066619873</v>
       </c>
       <c r="B14" t="n">
         <v>400</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004019927978515625</v>
+        <v>0.0003675860166549682</v>
       </c>
       <c r="D14" t="n">
         <v>1857</v>
@@ -856,16 +873,17 @@
       <c r="I14" t="n">
         <v>30</v>
       </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1490192413330078</v>
+        <v>0.1494071483612061</v>
       </c>
       <c r="B15" t="n">
         <v>400</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003725481033325195</v>
+        <v>0.0003735178709030151</v>
       </c>
       <c r="D15" t="n">
         <v>1857</v>
@@ -885,16 +903,17 @@
       <c r="I15" t="n">
         <v>30</v>
       </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1570010185241699</v>
+        <v>0.1596353054046631</v>
       </c>
       <c r="B16" t="n">
         <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003925025463104248</v>
+        <v>0.0003990882635116577</v>
       </c>
       <c r="D16" t="n">
         <v>1857</v>
@@ -914,16 +933,17 @@
       <c r="I16" t="n">
         <v>30</v>
       </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1510045528411865</v>
+        <v>0.158043384552002</v>
       </c>
       <c r="B17" t="n">
         <v>400</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0003775113821029663</v>
+        <v>0.0003951084613800049</v>
       </c>
       <c r="D17" t="n">
         <v>1857</v>
@@ -943,16 +963,17 @@
       <c r="I17" t="n">
         <v>30</v>
       </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1649703979492188</v>
+        <v>0.1581015586853027</v>
       </c>
       <c r="B18" t="n">
         <v>400</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004124259948730469</v>
+        <v>0.0003952538967132568</v>
       </c>
       <c r="D18" t="n">
         <v>1857</v>
@@ -972,16 +993,17 @@
       <c r="I18" t="n">
         <v>30</v>
       </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1634016036987305</v>
+        <v>0.19390869140625</v>
       </c>
       <c r="B19" t="n">
         <v>400</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004085040092468262</v>
+        <v>0.000484771728515625</v>
       </c>
       <c r="D19" t="n">
         <v>1857</v>
@@ -1001,16 +1023,17 @@
       <c r="I19" t="n">
         <v>30</v>
       </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1570010185241699</v>
+        <v>0.1459987163543701</v>
       </c>
       <c r="B20" t="n">
         <v>400</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0003925025463104248</v>
+        <v>0.0003649967908859253</v>
       </c>
       <c r="D20" t="n">
         <v>1857</v>
@@ -1030,16 +1053,17 @@
       <c r="I20" t="n">
         <v>30</v>
       </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1925241947174072</v>
+        <v>0.1499552726745605</v>
       </c>
       <c r="B21" t="n">
         <v>400</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004813104867935181</v>
+        <v>0.0003748881816864014</v>
       </c>
       <c r="D21" t="n">
         <v>1857</v>
@@ -1059,277 +1083,287 @@
       <c r="I21" t="n">
         <v>30</v>
       </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2192897796630859</v>
+        <v>0.1589932441711426</v>
       </c>
       <c r="B22" t="n">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001313112453072371</v>
+        <v>0.0003974831104278564</v>
       </c>
       <c r="D22" t="n">
-        <v>1338</v>
+        <v>1857</v>
       </c>
       <c r="E22" t="n">
-        <v>1432</v>
+        <v>1535</v>
       </c>
       <c r="F22" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.2331240177154541</v>
+        <v>0.160797119140625</v>
       </c>
       <c r="B23" t="n">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001395952201888947</v>
+        <v>0.0004019927978515625</v>
       </c>
       <c r="D23" t="n">
-        <v>1338</v>
+        <v>1857</v>
       </c>
       <c r="E23" t="n">
-        <v>1432</v>
+        <v>1535</v>
       </c>
       <c r="F23" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2303905487060547</v>
+        <v>0.1490192413330078</v>
       </c>
       <c r="B24" t="n">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001379584123988351</v>
+        <v>0.0003725481033325195</v>
       </c>
       <c r="D24" t="n">
-        <v>1338</v>
+        <v>1857</v>
       </c>
       <c r="E24" t="n">
-        <v>1432</v>
+        <v>1535</v>
       </c>
       <c r="F24" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2198679447174072</v>
+        <v>0.1570010185241699</v>
       </c>
       <c r="B25" t="n">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001316574519265912</v>
+        <v>0.0003925025463104248</v>
       </c>
       <c r="D25" t="n">
-        <v>1338</v>
+        <v>1857</v>
       </c>
       <c r="E25" t="n">
-        <v>1432</v>
+        <v>1535</v>
       </c>
       <c r="F25" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2410037517547607</v>
+        <v>0.1510045528411865</v>
       </c>
       <c r="B26" t="n">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00144313623805246</v>
+        <v>0.0003775113821029663</v>
       </c>
       <c r="D26" t="n">
-        <v>1338</v>
+        <v>1857</v>
       </c>
       <c r="E26" t="n">
-        <v>1432</v>
+        <v>1535</v>
       </c>
       <c r="F26" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2331774234771729</v>
+        <v>0.1649703979492188</v>
       </c>
       <c r="B27" t="n">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001396271996869298</v>
+        <v>0.0004124259948730469</v>
       </c>
       <c r="D27" t="n">
-        <v>1338</v>
+        <v>1857</v>
       </c>
       <c r="E27" t="n">
-        <v>1432</v>
+        <v>1535</v>
       </c>
       <c r="F27" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.2189977169036865</v>
+        <v>0.1634016036987305</v>
       </c>
       <c r="B28" t="n">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001311363574273572</v>
+        <v>0.0004085040092468262</v>
       </c>
       <c r="D28" t="n">
-        <v>1338</v>
+        <v>1857</v>
       </c>
       <c r="E28" t="n">
-        <v>1432</v>
+        <v>1535</v>
       </c>
       <c r="F28" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2546415328979492</v>
+        <v>0.1570010185241699</v>
       </c>
       <c r="B29" t="n">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001524799598191313</v>
+        <v>0.0003925025463104248</v>
       </c>
       <c r="D29" t="n">
-        <v>1338</v>
+        <v>1857</v>
       </c>
       <c r="E29" t="n">
-        <v>1432</v>
+        <v>1535</v>
       </c>
       <c r="F29" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.220980167388916</v>
+        <v>0.1925241947174072</v>
       </c>
       <c r="B30" t="n">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00132323453526297</v>
+        <v>0.0004813104867935181</v>
       </c>
       <c r="D30" t="n">
-        <v>1338</v>
+        <v>1857</v>
       </c>
       <c r="E30" t="n">
-        <v>1432</v>
+        <v>1535</v>
       </c>
       <c r="F30" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2204129695892334</v>
+        <v>0.2192897796630859</v>
       </c>
       <c r="B31" t="n">
         <v>167</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001319838141252895</v>
+        <v>0.001313112453072371</v>
       </c>
       <c r="D31" t="n">
         <v>1338</v>
@@ -1349,16 +1383,17 @@
       <c r="I31" t="n">
         <v>19</v>
       </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.2174787521362305</v>
+        <v>0.2331240177154541</v>
       </c>
       <c r="B32" t="n">
         <v>167</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001302267976863655</v>
+        <v>0.001395952201888947</v>
       </c>
       <c r="D32" t="n">
         <v>1338</v>
@@ -1378,16 +1413,17 @@
       <c r="I32" t="n">
         <v>19</v>
       </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2176244258880615</v>
+        <v>0.2303905487060547</v>
       </c>
       <c r="B33" t="n">
         <v>167</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001303140274778812</v>
+        <v>0.001379584123988351</v>
       </c>
       <c r="D33" t="n">
         <v>1338</v>
@@ -1407,16 +1443,17 @@
       <c r="I33" t="n">
         <v>19</v>
       </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2170183658599854</v>
+        <v>0.2198679447174072</v>
       </c>
       <c r="B34" t="n">
         <v>167</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001299511172814283</v>
+        <v>0.001316574519265912</v>
       </c>
       <c r="D34" t="n">
         <v>1338</v>
@@ -1436,16 +1473,17 @@
       <c r="I34" t="n">
         <v>19</v>
       </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.2200007438659668</v>
+        <v>0.2410037517547607</v>
       </c>
       <c r="B35" t="n">
         <v>167</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001317369723748304</v>
+        <v>0.00144313623805246</v>
       </c>
       <c r="D35" t="n">
         <v>1338</v>
@@ -1465,16 +1503,17 @@
       <c r="I35" t="n">
         <v>19</v>
       </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.2219970226287842</v>
+        <v>0.2331774234771729</v>
       </c>
       <c r="B36" t="n">
         <v>167</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001329323488795115</v>
+        <v>0.001396271996869298</v>
       </c>
       <c r="D36" t="n">
         <v>1338</v>
@@ -1494,16 +1533,17 @@
       <c r="I36" t="n">
         <v>19</v>
       </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.2129433155059814</v>
+        <v>0.2189977169036865</v>
       </c>
       <c r="B37" t="n">
         <v>167</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001275109673688512</v>
+        <v>0.001311363574273572</v>
       </c>
       <c r="D37" t="n">
         <v>1338</v>
@@ -1523,16 +1563,17 @@
       <c r="I37" t="n">
         <v>19</v>
       </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.2092311382293701</v>
+        <v>0.2546415328979492</v>
       </c>
       <c r="B38" t="n">
         <v>167</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001252881067241737</v>
+        <v>0.001524799598191313</v>
       </c>
       <c r="D38" t="n">
         <v>1338</v>
@@ -1552,16 +1593,17 @@
       <c r="I38" t="n">
         <v>19</v>
       </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.2148845195770264</v>
+        <v>0.220980167388916</v>
       </c>
       <c r="B39" t="n">
         <v>167</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001286733650161835</v>
+        <v>0.00132323453526297</v>
       </c>
       <c r="D39" t="n">
         <v>1338</v>
@@ -1581,16 +1623,17 @@
       <c r="I39" t="n">
         <v>19</v>
       </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2110462188720703</v>
+        <v>0.2204129695892334</v>
       </c>
       <c r="B40" t="n">
         <v>167</v>
       </c>
       <c r="C40" t="n">
-        <v>0.001263749813605211</v>
+        <v>0.001319838141252895</v>
       </c>
       <c r="D40" t="n">
         <v>1338</v>
@@ -1610,16 +1653,17 @@
       <c r="I40" t="n">
         <v>19</v>
       </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.2170064449310303</v>
+        <v>0.2174787521362305</v>
       </c>
       <c r="B41" t="n">
         <v>167</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001299439790006169</v>
+        <v>0.001302267976863655</v>
       </c>
       <c r="D41" t="n">
         <v>1338</v>
@@ -1639,277 +1683,287 @@
       <c r="I41" t="n">
         <v>19</v>
       </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.5262157917022705</v>
+        <v>0.2176244258880615</v>
       </c>
       <c r="B42" t="n">
-        <v>1217</v>
+        <v>167</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0004323876677915123</v>
+        <v>0.001303140274778812</v>
       </c>
       <c r="D42" t="n">
-        <v>6276</v>
+        <v>1338</v>
       </c>
       <c r="E42" t="n">
-        <v>5950</v>
+        <v>1432</v>
       </c>
       <c r="F42" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>123</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.5540316104888916</v>
+        <v>0.2170183658599854</v>
       </c>
       <c r="B43" t="n">
-        <v>1217</v>
+        <v>167</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0004552437226695905</v>
+        <v>0.001299511172814283</v>
       </c>
       <c r="D43" t="n">
-        <v>6276</v>
+        <v>1338</v>
       </c>
       <c r="E43" t="n">
-        <v>5950</v>
+        <v>1432</v>
       </c>
       <c r="F43" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>123</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.5613112449645996</v>
+        <v>0.2200007438659668</v>
       </c>
       <c r="B44" t="n">
-        <v>1217</v>
+        <v>167</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0004612253450818403</v>
+        <v>0.001317369723748304</v>
       </c>
       <c r="D44" t="n">
-        <v>6276</v>
+        <v>1338</v>
       </c>
       <c r="E44" t="n">
-        <v>5950</v>
+        <v>1432</v>
       </c>
       <c r="F44" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>123</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.52716064453125</v>
+        <v>0.2219970226287842</v>
       </c>
       <c r="B45" t="n">
-        <v>1217</v>
+        <v>167</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0004331640464513147</v>
+        <v>0.001329323488795115</v>
       </c>
       <c r="D45" t="n">
-        <v>6276</v>
+        <v>1338</v>
       </c>
       <c r="E45" t="n">
-        <v>5950</v>
+        <v>1432</v>
       </c>
       <c r="F45" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>123</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.5305519104003906</v>
+        <v>0.2129433155059814</v>
       </c>
       <c r="B46" t="n">
-        <v>1217</v>
+        <v>167</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0004359506248154401</v>
+        <v>0.001275109673688512</v>
       </c>
       <c r="D46" t="n">
-        <v>6276</v>
+        <v>1338</v>
       </c>
       <c r="E46" t="n">
-        <v>5950</v>
+        <v>1432</v>
       </c>
       <c r="F46" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>123</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.5363717079162598</v>
+        <v>0.2092311382293701</v>
       </c>
       <c r="B47" t="n">
-        <v>1217</v>
+        <v>167</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0004407327098736728</v>
+        <v>0.001252881067241737</v>
       </c>
       <c r="D47" t="n">
-        <v>6276</v>
+        <v>1338</v>
       </c>
       <c r="E47" t="n">
-        <v>5950</v>
+        <v>1432</v>
       </c>
       <c r="F47" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>123</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.5292596817016602</v>
+        <v>0.2148845195770264</v>
       </c>
       <c r="B48" t="n">
-        <v>1217</v>
+        <v>167</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0004348888099438456</v>
+        <v>0.001286733650161835</v>
       </c>
       <c r="D48" t="n">
-        <v>6276</v>
+        <v>1338</v>
       </c>
       <c r="E48" t="n">
-        <v>5950</v>
+        <v>1432</v>
       </c>
       <c r="F48" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>123</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.5277957916259766</v>
+        <v>0.2110462188720703</v>
       </c>
       <c r="B49" t="n">
-        <v>1217</v>
+        <v>167</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0004336859421741796</v>
+        <v>0.001263749813605211</v>
       </c>
       <c r="D49" t="n">
-        <v>6276</v>
+        <v>1338</v>
       </c>
       <c r="E49" t="n">
-        <v>5950</v>
+        <v>1432</v>
       </c>
       <c r="F49" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>123</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.5295195579528809</v>
+        <v>0.2170064449310303</v>
       </c>
       <c r="B50" t="n">
-        <v>1217</v>
+        <v>167</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0004351023483589818</v>
+        <v>0.001299439790006169</v>
       </c>
       <c r="D50" t="n">
-        <v>6276</v>
+        <v>1338</v>
       </c>
       <c r="E50" t="n">
-        <v>5950</v>
+        <v>1432</v>
       </c>
       <c r="F50" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>123</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.5371334552764893</v>
+        <v>0.5262157917022705</v>
       </c>
       <c r="B51" t="n">
         <v>1217</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0004413586321088655</v>
+        <v>0.0004323876677915123</v>
       </c>
       <c r="D51" t="n">
         <v>6276</v>
@@ -1929,16 +1983,17 @@
       <c r="I51" t="n">
         <v>123</v>
       </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.5339810848236084</v>
+        <v>0.5540316104888916</v>
       </c>
       <c r="B52" t="n">
         <v>1217</v>
       </c>
       <c r="C52" t="n">
-        <v>0.000438768352361223</v>
+        <v>0.0004552437226695905</v>
       </c>
       <c r="D52" t="n">
         <v>6276</v>
@@ -1958,16 +2013,17 @@
       <c r="I52" t="n">
         <v>123</v>
       </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.5774602890014648</v>
+        <v>0.5613112449645996</v>
       </c>
       <c r="B53" t="n">
         <v>1217</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0004744948964679251</v>
+        <v>0.0004612253450818403</v>
       </c>
       <c r="D53" t="n">
         <v>6276</v>
@@ -1987,16 +2043,17 @@
       <c r="I53" t="n">
         <v>123</v>
       </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.5346488952636719</v>
+        <v>0.52716064453125</v>
       </c>
       <c r="B54" t="n">
         <v>1217</v>
       </c>
       <c r="C54" t="n">
-        <v>0.000439317087316082</v>
+        <v>0.0004331640464513147</v>
       </c>
       <c r="D54" t="n">
         <v>6276</v>
@@ -2016,16 +2073,17 @@
       <c r="I54" t="n">
         <v>123</v>
       </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.5752665996551514</v>
+        <v>0.5305519104003906</v>
       </c>
       <c r="B55" t="n">
         <v>1217</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0004726923579746519</v>
+        <v>0.0004359506248154401</v>
       </c>
       <c r="D55" t="n">
         <v>6276</v>
@@ -2045,16 +2103,17 @@
       <c r="I55" t="n">
         <v>123</v>
       </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.5332505702972412</v>
+        <v>0.5363717079162598</v>
       </c>
       <c r="B56" t="n">
         <v>1217</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0004381680939172072</v>
+        <v>0.0004407327098736728</v>
       </c>
       <c r="D56" t="n">
         <v>6276</v>
@@ -2074,16 +2133,17 @@
       <c r="I56" t="n">
         <v>123</v>
       </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.5860321521759033</v>
+        <v>0.5292596817016602</v>
       </c>
       <c r="B57" t="n">
         <v>1217</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0004815383337517694</v>
+        <v>0.0004348888099438456</v>
       </c>
       <c r="D57" t="n">
         <v>6276</v>
@@ -2103,16 +2163,17 @@
       <c r="I57" t="n">
         <v>123</v>
       </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.5430960655212402</v>
+        <v>0.5277957916259766</v>
       </c>
       <c r="B58" t="n">
         <v>1217</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0004462580653420216</v>
+        <v>0.0004336859421741796</v>
       </c>
       <c r="D58" t="n">
         <v>6276</v>
@@ -2132,16 +2193,17 @@
       <c r="I58" t="n">
         <v>123</v>
       </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.5689496994018555</v>
+        <v>0.5295195579528809</v>
       </c>
       <c r="B59" t="n">
         <v>1217</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0004675018072324203</v>
+        <v>0.0004351023483589818</v>
       </c>
       <c r="D59" t="n">
         <v>6276</v>
@@ -2161,16 +2223,17 @@
       <c r="I59" t="n">
         <v>123</v>
       </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.5360033512115479</v>
+        <v>0.5371334552764893</v>
       </c>
       <c r="B60" t="n">
         <v>1217</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0004404300338632275</v>
+        <v>0.0004413586321088655</v>
       </c>
       <c r="D60" t="n">
         <v>6276</v>
@@ -2190,16 +2253,17 @@
       <c r="I60" t="n">
         <v>123</v>
       </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.5780251026153564</v>
+        <v>0.5339810848236084</v>
       </c>
       <c r="B61" t="n">
         <v>1217</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0004749589996839412</v>
+        <v>0.000438768352361223</v>
       </c>
       <c r="D61" t="n">
         <v>6276</v>
@@ -2219,277 +2283,287 @@
       <c r="I61" t="n">
         <v>123</v>
       </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.01297187805175781</v>
+        <v>0.5774602890014648</v>
       </c>
       <c r="B62" t="n">
-        <v>53</v>
+        <v>1217</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0002447524160709021</v>
+        <v>0.0004744948964679251</v>
       </c>
       <c r="D62" t="n">
-        <v>257</v>
+        <v>6276</v>
       </c>
       <c r="E62" t="n">
-        <v>215</v>
+        <v>5950</v>
       </c>
       <c r="F62" t="n">
-        <v>1880</v>
+        <v>2182</v>
       </c>
       <c r="G62" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.01391863822937012</v>
+        <v>0.5346488952636719</v>
       </c>
       <c r="B63" t="n">
-        <v>53</v>
+        <v>1217</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0002626158156484928</v>
+        <v>0.000439317087316082</v>
       </c>
       <c r="D63" t="n">
-        <v>257</v>
+        <v>6276</v>
       </c>
       <c r="E63" t="n">
-        <v>215</v>
+        <v>5950</v>
       </c>
       <c r="F63" t="n">
-        <v>1880</v>
+        <v>2182</v>
       </c>
       <c r="G63" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.01600241661071777</v>
+        <v>0.5752665996551514</v>
       </c>
       <c r="B64" t="n">
-        <v>53</v>
+        <v>1217</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0003019323888814674</v>
+        <v>0.0004726923579746519</v>
       </c>
       <c r="D64" t="n">
-        <v>257</v>
+        <v>6276</v>
       </c>
       <c r="E64" t="n">
-        <v>215</v>
+        <v>5950</v>
       </c>
       <c r="F64" t="n">
-        <v>1880</v>
+        <v>2182</v>
       </c>
       <c r="G64" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01401829719543457</v>
+        <v>0.5332505702972412</v>
       </c>
       <c r="B65" t="n">
-        <v>53</v>
+        <v>1217</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0002644961734987655</v>
+        <v>0.0004381680939172072</v>
       </c>
       <c r="D65" t="n">
-        <v>257</v>
+        <v>6276</v>
       </c>
       <c r="E65" t="n">
-        <v>215</v>
+        <v>5950</v>
       </c>
       <c r="F65" t="n">
-        <v>1880</v>
+        <v>2182</v>
       </c>
       <c r="G65" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.01307988166809082</v>
+        <v>0.5860321521759033</v>
       </c>
       <c r="B66" t="n">
-        <v>53</v>
+        <v>1217</v>
       </c>
       <c r="C66" t="n">
-        <v>0.000246790220152657</v>
+        <v>0.0004815383337517694</v>
       </c>
       <c r="D66" t="n">
-        <v>257</v>
+        <v>6276</v>
       </c>
       <c r="E66" t="n">
-        <v>215</v>
+        <v>5950</v>
       </c>
       <c r="F66" t="n">
-        <v>1880</v>
+        <v>2182</v>
       </c>
       <c r="G66" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.01397609710693359</v>
+        <v>0.5430960655212402</v>
       </c>
       <c r="B67" t="n">
-        <v>53</v>
+        <v>1217</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0002636999454138414</v>
+        <v>0.0004462580653420216</v>
       </c>
       <c r="D67" t="n">
-        <v>257</v>
+        <v>6276</v>
       </c>
       <c r="E67" t="n">
-        <v>215</v>
+        <v>5950</v>
       </c>
       <c r="F67" t="n">
-        <v>1880</v>
+        <v>2182</v>
       </c>
       <c r="G67" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.01399898529052734</v>
+        <v>0.5689496994018555</v>
       </c>
       <c r="B68" t="n">
-        <v>53</v>
+        <v>1217</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0002641317979344782</v>
+        <v>0.0004675018072324203</v>
       </c>
       <c r="D68" t="n">
-        <v>257</v>
+        <v>6276</v>
       </c>
       <c r="E68" t="n">
-        <v>215</v>
+        <v>5950</v>
       </c>
       <c r="F68" t="n">
-        <v>1880</v>
+        <v>2182</v>
       </c>
       <c r="G68" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.01300716400146484</v>
+        <v>0.5360033512115479</v>
       </c>
       <c r="B69" t="n">
-        <v>53</v>
+        <v>1217</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0002454181887068838</v>
+        <v>0.0004404300338632275</v>
       </c>
       <c r="D69" t="n">
-        <v>257</v>
+        <v>6276</v>
       </c>
       <c r="E69" t="n">
-        <v>215</v>
+        <v>5950</v>
       </c>
       <c r="F69" t="n">
-        <v>1880</v>
+        <v>2182</v>
       </c>
       <c r="G69" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.01299715042114258</v>
+        <v>0.5780251026153564</v>
       </c>
       <c r="B70" t="n">
-        <v>53</v>
+        <v>1217</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0002452292532291052</v>
+        <v>0.0004749589996839412</v>
       </c>
       <c r="D70" t="n">
-        <v>257</v>
+        <v>6276</v>
       </c>
       <c r="E70" t="n">
-        <v>215</v>
+        <v>5950</v>
       </c>
       <c r="F70" t="n">
-        <v>1880</v>
+        <v>2182</v>
       </c>
       <c r="G70" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.01301479339599609</v>
+        <v>0.01297187805175781</v>
       </c>
       <c r="B71" t="n">
         <v>53</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0002455621395470961</v>
+        <v>0.0002447524160709021</v>
       </c>
       <c r="D71" t="n">
         <v>257</v>
@@ -2509,16 +2583,17 @@
       <c r="I71" t="n">
         <v>1</v>
       </c>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.0130162239074707</v>
+        <v>0.01391863822937012</v>
       </c>
       <c r="B72" t="n">
         <v>53</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0002455891303296359</v>
+        <v>0.0002626158156484928</v>
       </c>
       <c r="D72" t="n">
         <v>257</v>
@@ -2538,16 +2613,17 @@
       <c r="I72" t="n">
         <v>1</v>
       </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.01190662384033203</v>
+        <v>0.01600241661071777</v>
       </c>
       <c r="B73" t="n">
         <v>53</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0002246532800062647</v>
+        <v>0.0003019323888814674</v>
       </c>
       <c r="D73" t="n">
         <v>257</v>
@@ -2567,16 +2643,17 @@
       <c r="I73" t="n">
         <v>1</v>
       </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.01201438903808594</v>
+        <v>0.01401829719543457</v>
       </c>
       <c r="B74" t="n">
         <v>53</v>
       </c>
       <c r="C74" t="n">
-        <v>0.000226686585624263</v>
+        <v>0.0002644961734987655</v>
       </c>
       <c r="D74" t="n">
         <v>257</v>
@@ -2596,16 +2673,17 @@
       <c r="I74" t="n">
         <v>1</v>
       </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.01311135292053223</v>
+        <v>0.01307988166809082</v>
       </c>
       <c r="B75" t="n">
         <v>53</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0002473840173685326</v>
+        <v>0.000246790220152657</v>
       </c>
       <c r="D75" t="n">
         <v>257</v>
@@ -2625,16 +2703,17 @@
       <c r="I75" t="n">
         <v>1</v>
       </c>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.01300191879272461</v>
+        <v>0.01397609710693359</v>
       </c>
       <c r="B76" t="n">
         <v>53</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0002453192225042379</v>
+        <v>0.0002636999454138414</v>
       </c>
       <c r="D76" t="n">
         <v>257</v>
@@ -2654,16 +2733,17 @@
       <c r="I76" t="n">
         <v>1</v>
       </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.01791667938232422</v>
+        <v>0.01399898529052734</v>
       </c>
       <c r="B77" t="n">
         <v>53</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0003380505543834758</v>
+        <v>0.0002641317979344782</v>
       </c>
       <c r="D77" t="n">
         <v>257</v>
@@ -2683,16 +2763,17 @@
       <c r="I77" t="n">
         <v>1</v>
       </c>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.01299142837524414</v>
+        <v>0.01300716400146484</v>
       </c>
       <c r="B78" t="n">
         <v>53</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0002451212900989461</v>
+        <v>0.0002454181887068838</v>
       </c>
       <c r="D78" t="n">
         <v>257</v>
@@ -2712,16 +2793,17 @@
       <c r="I78" t="n">
         <v>1</v>
       </c>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.01298165321350098</v>
+        <v>0.01299715042114258</v>
       </c>
       <c r="B79" t="n">
         <v>53</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0002449368530849241</v>
+        <v>0.0002452292532291052</v>
       </c>
       <c r="D79" t="n">
         <v>257</v>
@@ -2741,16 +2823,17 @@
       <c r="I79" t="n">
         <v>1</v>
       </c>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.01299643516540527</v>
+        <v>0.01301479339599609</v>
       </c>
       <c r="B80" t="n">
         <v>53</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0002452157578378354</v>
+        <v>0.0002455621395470961</v>
       </c>
       <c r="D80" t="n">
         <v>257</v>
@@ -2770,16 +2853,17 @@
       <c r="I80" t="n">
         <v>1</v>
       </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.01299619674682617</v>
+        <v>0.0130162239074707</v>
       </c>
       <c r="B81" t="n">
         <v>53</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0002452112593740787</v>
+        <v>0.0002455891303296359</v>
       </c>
       <c r="D81" t="n">
         <v>257</v>
@@ -2799,16 +2883,17 @@
       <c r="I81" t="n">
         <v>1</v>
       </c>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.01298832893371582</v>
+        <v>0.01190662384033203</v>
       </c>
       <c r="B82" t="n">
         <v>53</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0002450628100701098</v>
+        <v>0.0002246532800062647</v>
       </c>
       <c r="D82" t="n">
         <v>257</v>
@@ -2828,6 +2913,277 @@
       <c r="I82" t="n">
         <v>1</v>
       </c>
+      <c r="J82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.01201438903808594</v>
+      </c>
+      <c r="B83" t="n">
+        <v>53</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.000226686585624263</v>
+      </c>
+      <c r="D83" t="n">
+        <v>257</v>
+      </c>
+      <c r="E83" t="n">
+        <v>215</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G83" t="n">
+        <v>12</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.01311135292053223</v>
+      </c>
+      <c r="B84" t="n">
+        <v>53</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0002473840173685326</v>
+      </c>
+      <c r="D84" t="n">
+        <v>257</v>
+      </c>
+      <c r="E84" t="n">
+        <v>215</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G84" t="n">
+        <v>12</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.01300191879272461</v>
+      </c>
+      <c r="B85" t="n">
+        <v>53</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0002453192225042379</v>
+      </c>
+      <c r="D85" t="n">
+        <v>257</v>
+      </c>
+      <c r="E85" t="n">
+        <v>215</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G85" t="n">
+        <v>12</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.01791667938232422</v>
+      </c>
+      <c r="B86" t="n">
+        <v>53</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0003380505543834758</v>
+      </c>
+      <c r="D86" t="n">
+        <v>257</v>
+      </c>
+      <c r="E86" t="n">
+        <v>215</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G86" t="n">
+        <v>12</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.01299142837524414</v>
+      </c>
+      <c r="B87" t="n">
+        <v>53</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0002451212900989461</v>
+      </c>
+      <c r="D87" t="n">
+        <v>257</v>
+      </c>
+      <c r="E87" t="n">
+        <v>215</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G87" t="n">
+        <v>12</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.01298165321350098</v>
+      </c>
+      <c r="B88" t="n">
+        <v>53</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0002449368530849241</v>
+      </c>
+      <c r="D88" t="n">
+        <v>257</v>
+      </c>
+      <c r="E88" t="n">
+        <v>215</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G88" t="n">
+        <v>12</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.01299643516540527</v>
+      </c>
+      <c r="B89" t="n">
+        <v>53</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0002452157578378354</v>
+      </c>
+      <c r="D89" t="n">
+        <v>257</v>
+      </c>
+      <c r="E89" t="n">
+        <v>215</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G89" t="n">
+        <v>12</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.01299619674682617</v>
+      </c>
+      <c r="B90" t="n">
+        <v>53</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.0002452112593740787</v>
+      </c>
+      <c r="D90" t="n">
+        <v>257</v>
+      </c>
+      <c r="E90" t="n">
+        <v>215</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G90" t="n">
+        <v>12</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.01298832893371582</v>
+      </c>
+      <c r="B91" t="n">
+        <v>53</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.0002450628100701098</v>
+      </c>
+      <c r="D91" t="n">
+        <v>257</v>
+      </c>
+      <c r="E91" t="n">
+        <v>215</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G91" t="n">
+        <v>12</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Lab/aima-python-master/results_heuristics_weighted.xlsx
+++ b/Lab/aima-python-master/results_heuristics_weighted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:J283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,2355 +479,8553 @@
           <t>Dummy Nodes</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1506462097167969</v>
+        <v>2343497</v>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>2359298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003766155242919922</v>
+        <v>0.9933026688447156</v>
       </c>
       <c r="D2" t="n">
-        <v>1857</v>
+        <v>471478</v>
       </c>
       <c r="E2" t="n">
-        <v>1535</v>
+        <v>2413</v>
       </c>
       <c r="F2" t="n">
-        <v>2998</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>30</v>
-      </c>
+        <v>2081823</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1492605209350586</v>
+        <v>524290</v>
       </c>
       <c r="B3" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003731513023376465</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E3" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F3" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1510064601898193</v>
+        <v>11266</v>
       </c>
       <c r="B4" t="n">
-        <v>400</v>
+        <v>11266</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003775161504745483</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1857</v>
+        <v>1377</v>
       </c>
       <c r="E4" t="n">
-        <v>1535</v>
+        <v>1799</v>
       </c>
       <c r="F4" t="n">
-        <v>2998</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>30</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1470344066619873</v>
+        <v>524290</v>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003675860166549682</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E5" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F5" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1494071483612061</v>
+        <v>524290</v>
       </c>
       <c r="B6" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003735178709030151</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E6" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F6" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1596353054046631</v>
+        <v>524290</v>
       </c>
       <c r="B7" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003990882635116577</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E7" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F7" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.158043384552002</v>
+        <v>524290</v>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003951084613800049</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E8" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F8" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1581015586853027</v>
+        <v>524290</v>
       </c>
       <c r="B9" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003952538967132568</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E9" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F9" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.19390869140625</v>
+        <v>524290</v>
       </c>
       <c r="B10" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000484771728515625</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E10" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F10" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1459987163543701</v>
+        <v>524290</v>
       </c>
       <c r="B11" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003649967908859253</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E11" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F11" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1499552726745605</v>
+        <v>524290</v>
       </c>
       <c r="B12" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003748881816864014</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E12" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F12" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1589932441711426</v>
+        <v>524290</v>
       </c>
       <c r="B13" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003974831104278564</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E13" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F13" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.160797119140625</v>
+        <v>524290</v>
       </c>
       <c r="B14" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004019927978515625</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E14" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F14" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1490192413330078</v>
+        <v>524290</v>
       </c>
       <c r="B15" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003725481033325195</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E15" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F15" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1570010185241699</v>
+        <v>524290</v>
       </c>
       <c r="B16" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003925025463104248</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E16" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F16" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1510045528411865</v>
+        <v>524290</v>
       </c>
       <c r="B17" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0003775113821029663</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E17" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F17" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1649703979492188</v>
+        <v>524290</v>
       </c>
       <c r="B18" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004124259948730469</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E18" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F18" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1634016036987305</v>
+        <v>524290</v>
       </c>
       <c r="B19" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004085040092468262</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E19" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F19" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1570010185241699</v>
+        <v>524290</v>
       </c>
       <c r="B20" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0003925025463104248</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E20" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F20" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1925241947174072</v>
+        <v>524290</v>
       </c>
       <c r="B21" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004813104867935181</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E21" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F21" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2192897796630859</v>
+        <v>524290</v>
       </c>
       <c r="B22" t="n">
-        <v>167</v>
+        <v>524290</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001313112453072371</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1338</v>
+        <v>24778</v>
       </c>
       <c r="E22" t="n">
-        <v>1432</v>
+        <v>2085</v>
       </c>
       <c r="F22" t="n">
-        <v>2483</v>
+        <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19</v>
-      </c>
+        <v>567780</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.2331240177154541</v>
+        <v>11266</v>
       </c>
       <c r="B23" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001395952201888947</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E23" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F23" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2303905487060547</v>
+        <v>11266</v>
       </c>
       <c r="B24" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001379584123988351</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E24" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F24" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2198679447174072</v>
+        <v>11266</v>
       </c>
       <c r="B25" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001316574519265912</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E25" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F25" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2410037517547607</v>
+        <v>11266</v>
       </c>
       <c r="B26" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00144313623805246</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E26" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F26" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2331774234771729</v>
+        <v>11266</v>
       </c>
       <c r="B27" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001396271996869298</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E27" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F27" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.2189977169036865</v>
+        <v>11266</v>
       </c>
       <c r="B28" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001311363574273572</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E28" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F28" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2546415328979492</v>
+        <v>11266</v>
       </c>
       <c r="B29" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001524799598191313</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E29" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F29" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G29" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.220980167388916</v>
+        <v>11266</v>
       </c>
       <c r="B30" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00132323453526297</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E30" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F30" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2204129695892334</v>
+        <v>11266</v>
       </c>
       <c r="B31" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001319838141252895</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E31" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F31" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G31" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.2174787521362305</v>
+        <v>11266</v>
       </c>
       <c r="B32" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001302267976863655</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E32" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F32" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G32" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2176244258880615</v>
+        <v>11266</v>
       </c>
       <c r="B33" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001303140274778812</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E33" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F33" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G33" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2170183658599854</v>
+        <v>11266</v>
       </c>
       <c r="B34" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001299511172814283</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E34" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F34" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G34" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.2200007438659668</v>
+        <v>11266</v>
       </c>
       <c r="B35" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001317369723748304</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E35" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F35" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G35" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.2219970226287842</v>
+        <v>11266</v>
       </c>
       <c r="B36" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001329323488795115</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E36" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F36" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G36" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.2129433155059814</v>
+        <v>11266</v>
       </c>
       <c r="B37" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001275109673688512</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E37" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F37" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G37" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.2092311382293701</v>
+        <v>11266</v>
       </c>
       <c r="B38" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001252881067241737</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E38" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F38" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G38" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.2148845195770264</v>
+        <v>11266</v>
       </c>
       <c r="B39" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001286733650161835</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E39" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F39" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G39" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2110462188720703</v>
+        <v>11266</v>
       </c>
       <c r="B40" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C40" t="n">
-        <v>0.001263749813605211</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E40" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F40" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G40" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.2170064449310303</v>
+        <v>11266</v>
       </c>
       <c r="B41" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001299439790006169</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E41" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F41" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G41" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>19</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.5262157917022705</v>
+        <v>11266</v>
       </c>
       <c r="B42" t="n">
-        <v>1217</v>
+        <v>11266</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0004323876677915123</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>6276</v>
+        <v>1377</v>
       </c>
       <c r="E42" t="n">
-        <v>5950</v>
+        <v>1799</v>
       </c>
       <c r="F42" t="n">
-        <v>2182</v>
+        <v>12</v>
       </c>
       <c r="G42" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>31</v>
-      </c>
-      <c r="I42" t="n">
-        <v>123</v>
-      </c>
+        <v>6895</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.5540316104888916</v>
+        <v>0.1109213829040527</v>
       </c>
       <c r="B43" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0004552437226695905</v>
+        <v>0.001498937606811523</v>
       </c>
       <c r="D43" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E43" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F43" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G43" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H43" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.5613112449645996</v>
+        <v>0.1068761348724365</v>
       </c>
       <c r="B44" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0004612253450818403</v>
+        <v>0.001444272092870764</v>
       </c>
       <c r="D44" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E44" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F44" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G44" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H44" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.52716064453125</v>
+        <v>0.1075551509857178</v>
       </c>
       <c r="B45" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0004331640464513147</v>
+        <v>0.001453447986293483</v>
       </c>
       <c r="D45" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E45" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F45" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G45" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H45" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.5305519104003906</v>
+        <v>0.1096291542053223</v>
       </c>
       <c r="B46" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0004359506248154401</v>
+        <v>0.001481475056828679</v>
       </c>
       <c r="D46" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E46" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F46" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G46" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H46" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.5363717079162598</v>
+        <v>0.1074957847595215</v>
       </c>
       <c r="B47" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0004407327098736728</v>
+        <v>0.001452645739993533</v>
       </c>
       <c r="D47" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E47" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F47" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G47" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H47" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.5292596817016602</v>
+        <v>0.1067628860473633</v>
       </c>
       <c r="B48" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0004348888099438456</v>
+        <v>0.001442741703342747</v>
       </c>
       <c r="D48" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E48" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F48" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G48" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H48" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.5277957916259766</v>
+        <v>0.1098716259002686</v>
       </c>
       <c r="B49" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0004336859421741796</v>
+        <v>0.00148475170135498</v>
       </c>
       <c r="D49" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E49" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F49" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G49" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H49" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.5295195579528809</v>
+        <v>0.1082534790039062</v>
       </c>
       <c r="B50" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0004351023483589818</v>
+        <v>0.001462884851404139</v>
       </c>
       <c r="D50" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E50" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F50" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G50" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H50" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.5371334552764893</v>
+        <v>0.1101102828979492</v>
       </c>
       <c r="B51" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0004413586321088655</v>
+        <v>0.001487976795918233</v>
       </c>
       <c r="D51" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E51" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F51" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G51" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H51" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.5339810848236084</v>
+        <v>0.1086537837982178</v>
       </c>
       <c r="B52" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C52" t="n">
-        <v>0.000438768352361223</v>
+        <v>0.001468294375651592</v>
       </c>
       <c r="D52" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E52" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F52" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G52" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H52" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.5774602890014648</v>
+        <v>0.1093356609344482</v>
       </c>
       <c r="B53" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0004744948964679251</v>
+        <v>0.001477508931546598</v>
       </c>
       <c r="D53" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E53" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F53" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G53" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H53" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.5346488952636719</v>
+        <v>0.1094660758972168</v>
       </c>
       <c r="B54" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C54" t="n">
-        <v>0.000439317087316082</v>
+        <v>0.001479271295908335</v>
       </c>
       <c r="D54" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E54" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F54" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G54" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H54" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.5752665996551514</v>
+        <v>0.1085052490234375</v>
       </c>
       <c r="B55" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0004726923579746519</v>
+        <v>0.001466287148965372</v>
       </c>
       <c r="D55" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E55" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F55" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G55" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H55" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.5332505702972412</v>
+        <v>0.1103432178497314</v>
       </c>
       <c r="B56" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0004381680939172072</v>
+        <v>0.001491124565536911</v>
       </c>
       <c r="D56" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E56" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F56" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G56" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H56" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.5860321521759033</v>
+        <v>0.1094706058502197</v>
       </c>
       <c r="B57" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0004815383337517694</v>
+        <v>0.001479332511489456</v>
       </c>
       <c r="D57" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E57" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F57" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G57" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H57" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.5430960655212402</v>
+        <v>0.1125786304473877</v>
       </c>
       <c r="B58" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0004462580653420216</v>
+        <v>0.001521332843883618</v>
       </c>
       <c r="D58" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E58" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F58" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G58" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H58" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.5689496994018555</v>
+        <v>0.1119272708892822</v>
       </c>
       <c r="B59" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0004675018072324203</v>
+        <v>0.001512530687693003</v>
       </c>
       <c r="D59" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E59" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F59" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G59" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H59" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.5360033512115479</v>
+        <v>0.1089200973510742</v>
       </c>
       <c r="B60" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0004404300338632275</v>
+        <v>0.001471893207446949</v>
       </c>
       <c r="D60" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E60" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F60" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G60" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H60" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.5780251026153564</v>
+        <v>0.1096251010894775</v>
       </c>
       <c r="B61" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0004749589996839412</v>
+        <v>0.00148142028499294</v>
       </c>
       <c r="D61" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E61" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F61" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G61" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H61" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.01297187805175781</v>
+        <v>0.1098880767822266</v>
       </c>
       <c r="B62" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0002447524160709021</v>
+        <v>0.001484974010570629</v>
       </c>
       <c r="D62" t="n">
-        <v>257</v>
+        <v>622</v>
       </c>
       <c r="E62" t="n">
-        <v>215</v>
+        <v>578</v>
       </c>
       <c r="F62" t="n">
-        <v>1880</v>
+        <v>2998</v>
       </c>
       <c r="G62" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.01391863822937012</v>
+        <v>0.0996701717376709</v>
       </c>
       <c r="B63" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0002626158156484928</v>
+        <v>0.001384307940800985</v>
       </c>
       <c r="D63" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E63" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F63" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G63" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.01600241661071777</v>
+        <v>0.1003000736236572</v>
       </c>
       <c r="B64" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0003019323888814674</v>
+        <v>0.00139305657810635</v>
       </c>
       <c r="D64" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E64" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F64" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G64" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01401829719543457</v>
+        <v>0.1003096103668213</v>
       </c>
       <c r="B65" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0002644961734987655</v>
+        <v>0.001393189032872518</v>
       </c>
       <c r="D65" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E65" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F65" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G65" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.01307988166809082</v>
+        <v>0.1002533435821533</v>
       </c>
       <c r="B66" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C66" t="n">
-        <v>0.000246790220152657</v>
+        <v>0.001392407549752129</v>
       </c>
       <c r="D66" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E66" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F66" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G66" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.01397609710693359</v>
+        <v>0.101090669631958</v>
       </c>
       <c r="B67" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0002636999454138414</v>
+        <v>0.001404037078221639</v>
       </c>
       <c r="D67" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E67" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F67" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G67" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.01399898529052734</v>
+        <v>0.1008715629577637</v>
       </c>
       <c r="B68" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0002641317979344782</v>
+        <v>0.00140099392996894</v>
       </c>
       <c r="D68" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E68" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F68" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G68" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.01300716400146484</v>
+        <v>0.09937024116516113</v>
       </c>
       <c r="B69" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0002454181887068838</v>
+        <v>0.001380142238405016</v>
       </c>
       <c r="D69" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E69" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F69" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G69" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.01299715042114258</v>
+        <v>0.09990119934082031</v>
       </c>
       <c r="B70" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0002452292532291052</v>
+        <v>0.001387516657511393</v>
       </c>
       <c r="D70" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E70" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F70" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G70" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.01301479339599609</v>
+        <v>0.1002490520477295</v>
       </c>
       <c r="B71" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0002455621395470961</v>
+        <v>0.001392347945107354</v>
       </c>
       <c r="D71" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E71" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F71" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G71" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.0130162239074707</v>
+        <v>0.1022427082061768</v>
       </c>
       <c r="B72" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0002455891303296359</v>
+        <v>0.001420037613974677</v>
       </c>
       <c r="D72" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E72" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F72" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G72" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.01190662384033203</v>
+        <v>0.09975075721740723</v>
       </c>
       <c r="B73" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0002246532800062647</v>
+        <v>0.0013854271835751</v>
       </c>
       <c r="D73" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E73" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F73" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G73" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.01201438903808594</v>
+        <v>0.1006605625152588</v>
       </c>
       <c r="B74" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>0.000226686585624263</v>
+        <v>0.001398063368267483</v>
       </c>
       <c r="D74" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E74" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F74" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G74" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.01311135292053223</v>
+        <v>0.0990755558013916</v>
       </c>
       <c r="B75" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0002473840173685326</v>
+        <v>0.001376049386130439</v>
       </c>
       <c r="D75" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E75" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F75" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G75" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.01300191879272461</v>
+        <v>0.09967160224914551</v>
       </c>
       <c r="B76" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0002453192225042379</v>
+        <v>0.00138432780901591</v>
       </c>
       <c r="D76" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E76" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F76" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G76" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.01791667938232422</v>
+        <v>0.0991218090057373</v>
       </c>
       <c r="B77" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0003380505543834758</v>
+        <v>0.001376691791746351</v>
       </c>
       <c r="D77" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E77" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F77" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G77" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.01299142837524414</v>
+        <v>0.09948492050170898</v>
       </c>
       <c r="B78" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0002451212900989461</v>
+        <v>0.00138173500696818</v>
       </c>
       <c r="D78" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E78" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F78" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G78" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.01298165321350098</v>
+        <v>0.1014535427093506</v>
       </c>
       <c r="B79" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0002449368530849241</v>
+        <v>0.001409076982074314</v>
       </c>
       <c r="D79" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E79" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F79" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G79" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.01299643516540527</v>
+        <v>0.1006462574005127</v>
       </c>
       <c r="B80" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0002452157578378354</v>
+        <v>0.001397864686118232</v>
       </c>
       <c r="D80" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E80" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F80" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G80" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.01299619674682617</v>
+        <v>0.1024816036224365</v>
       </c>
       <c r="B81" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0002452112593740787</v>
+        <v>0.001423355605867174</v>
       </c>
       <c r="D81" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E81" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F81" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G81" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
+        <v>0.1016252040863037</v>
+      </c>
+      <c r="B82" t="n">
+        <v>72</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.001411461167865329</v>
+      </c>
+      <c r="D82" t="n">
+        <v>672</v>
+      </c>
+      <c r="E82" t="n">
+        <v>653</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G82" t="n">
+        <v>19</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.04296684265136719</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.000530454847547743</v>
+      </c>
+      <c r="D83" t="n">
+        <v>486</v>
+      </c>
+      <c r="E83" t="n">
+        <v>467</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G83" t="n">
+        <v>17</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.04647636413574219</v>
+      </c>
+      <c r="B84" t="n">
+        <v>81</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0005737822732807677</v>
+      </c>
+      <c r="D84" t="n">
+        <v>486</v>
+      </c>
+      <c r="E84" t="n">
+        <v>467</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G84" t="n">
+        <v>17</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.04158449172973633</v>
+      </c>
+      <c r="B85" t="n">
+        <v>81</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0005133887867868682</v>
+      </c>
+      <c r="D85" t="n">
+        <v>486</v>
+      </c>
+      <c r="E85" t="n">
+        <v>467</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G85" t="n">
+        <v>17</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.04256534576416016</v>
+      </c>
+      <c r="B86" t="n">
+        <v>81</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0005254980958538291</v>
+      </c>
+      <c r="D86" t="n">
+        <v>486</v>
+      </c>
+      <c r="E86" t="n">
+        <v>467</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G86" t="n">
+        <v>17</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.04440498352050781</v>
+      </c>
+      <c r="B87" t="n">
+        <v>81</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.000548209673092689</v>
+      </c>
+      <c r="D87" t="n">
+        <v>486</v>
+      </c>
+      <c r="E87" t="n">
+        <v>467</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G87" t="n">
+        <v>17</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.04403305053710938</v>
+      </c>
+      <c r="B88" t="n">
+        <v>81</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0005436179078655479</v>
+      </c>
+      <c r="D88" t="n">
+        <v>486</v>
+      </c>
+      <c r="E88" t="n">
+        <v>467</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G88" t="n">
+        <v>17</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.04232263565063477</v>
+      </c>
+      <c r="B89" t="n">
+        <v>81</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0005225016746991946</v>
+      </c>
+      <c r="D89" t="n">
+        <v>486</v>
+      </c>
+      <c r="E89" t="n">
+        <v>467</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G89" t="n">
+        <v>17</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.04239439964294434</v>
+      </c>
+      <c r="B90" t="n">
+        <v>81</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.0005233876499128931</v>
+      </c>
+      <c r="D90" t="n">
+        <v>486</v>
+      </c>
+      <c r="E90" t="n">
+        <v>467</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G90" t="n">
+        <v>17</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.04321455955505371</v>
+      </c>
+      <c r="B91" t="n">
+        <v>81</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.000533513080926589</v>
+      </c>
+      <c r="D91" t="n">
+        <v>486</v>
+      </c>
+      <c r="E91" t="n">
+        <v>467</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G91" t="n">
+        <v>17</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.04347681999206543</v>
+      </c>
+      <c r="B92" t="n">
+        <v>81</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.0005367508640995732</v>
+      </c>
+      <c r="D92" t="n">
+        <v>486</v>
+      </c>
+      <c r="E92" t="n">
+        <v>467</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G92" t="n">
+        <v>17</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.04214382171630859</v>
+      </c>
+      <c r="B93" t="n">
+        <v>81</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.0005202940952630691</v>
+      </c>
+      <c r="D93" t="n">
+        <v>486</v>
+      </c>
+      <c r="E93" t="n">
+        <v>467</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G93" t="n">
+        <v>17</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.04207301139831543</v>
+      </c>
+      <c r="B94" t="n">
+        <v>81</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0005194198938063634</v>
+      </c>
+      <c r="D94" t="n">
+        <v>486</v>
+      </c>
+      <c r="E94" t="n">
+        <v>467</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G94" t="n">
+        <v>17</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.04182004928588867</v>
+      </c>
+      <c r="B95" t="n">
+        <v>81</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.0005162969047640577</v>
+      </c>
+      <c r="D95" t="n">
+        <v>486</v>
+      </c>
+      <c r="E95" t="n">
+        <v>467</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G95" t="n">
+        <v>17</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.04299426078796387</v>
+      </c>
+      <c r="B96" t="n">
+        <v>81</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.0005307933430612823</v>
+      </c>
+      <c r="D96" t="n">
+        <v>486</v>
+      </c>
+      <c r="E96" t="n">
+        <v>467</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G96" t="n">
+        <v>17</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.04272031784057617</v>
+      </c>
+      <c r="B97" t="n">
+        <v>81</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.0005274113313651379</v>
+      </c>
+      <c r="D97" t="n">
+        <v>486</v>
+      </c>
+      <c r="E97" t="n">
+        <v>467</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G97" t="n">
+        <v>17</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.04144096374511719</v>
+      </c>
+      <c r="B98" t="n">
+        <v>81</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0005116168363594715</v>
+      </c>
+      <c r="D98" t="n">
+        <v>486</v>
+      </c>
+      <c r="E98" t="n">
+        <v>467</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G98" t="n">
+        <v>17</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.04433989524841309</v>
+      </c>
+      <c r="B99" t="n">
+        <v>81</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0005474061141779393</v>
+      </c>
+      <c r="D99" t="n">
+        <v>486</v>
+      </c>
+      <c r="E99" t="n">
+        <v>467</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G99" t="n">
+        <v>17</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.04126858711242676</v>
+      </c>
+      <c r="B100" t="n">
+        <v>81</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.0005094887297830464</v>
+      </c>
+      <c r="D100" t="n">
+        <v>486</v>
+      </c>
+      <c r="E100" t="n">
+        <v>467</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G100" t="n">
+        <v>17</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.04106712341308594</v>
+      </c>
+      <c r="B101" t="n">
+        <v>81</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.000507001523618345</v>
+      </c>
+      <c r="D101" t="n">
+        <v>486</v>
+      </c>
+      <c r="E101" t="n">
+        <v>467</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G101" t="n">
+        <v>17</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.04266715049743652</v>
+      </c>
+      <c r="B102" t="n">
+        <v>81</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.0005267549444127966</v>
+      </c>
+      <c r="D102" t="n">
+        <v>486</v>
+      </c>
+      <c r="E102" t="n">
+        <v>467</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G102" t="n">
+        <v>17</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.004563808441162109</v>
+      </c>
+      <c r="B103" t="n">
+        <v>20</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0002281904220581055</v>
+      </c>
+      <c r="D103" t="n">
+        <v>108</v>
+      </c>
+      <c r="E103" t="n">
+        <v>88</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G103" t="n">
+        <v>12</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.003988742828369141</v>
+      </c>
+      <c r="B104" t="n">
+        <v>20</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.000199437141418457</v>
+      </c>
+      <c r="D104" t="n">
+        <v>108</v>
+      </c>
+      <c r="E104" t="n">
+        <v>88</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G104" t="n">
+        <v>12</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.005240678787231445</v>
+      </c>
+      <c r="B105" t="n">
+        <v>20</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.0002620339393615723</v>
+      </c>
+      <c r="D105" t="n">
+        <v>108</v>
+      </c>
+      <c r="E105" t="n">
+        <v>88</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G105" t="n">
+        <v>12</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.004519224166870117</v>
+      </c>
+      <c r="B106" t="n">
+        <v>20</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.0002259612083435059</v>
+      </c>
+      <c r="D106" t="n">
+        <v>108</v>
+      </c>
+      <c r="E106" t="n">
+        <v>88</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G106" t="n">
+        <v>12</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.004891395568847656</v>
+      </c>
+      <c r="B107" t="n">
+        <v>20</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.0002445697784423828</v>
+      </c>
+      <c r="D107" t="n">
+        <v>108</v>
+      </c>
+      <c r="E107" t="n">
+        <v>88</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G107" t="n">
+        <v>12</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.004503011703491211</v>
+      </c>
+      <c r="B108" t="n">
+        <v>20</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0002251505851745606</v>
+      </c>
+      <c r="D108" t="n">
+        <v>108</v>
+      </c>
+      <c r="E108" t="n">
+        <v>88</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G108" t="n">
+        <v>12</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.00500035285949707</v>
+      </c>
+      <c r="B109" t="n">
+        <v>20</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.0002500176429748535</v>
+      </c>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="n">
+        <v>88</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G109" t="n">
+        <v>12</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.005297183990478516</v>
+      </c>
+      <c r="B110" t="n">
+        <v>20</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.0002648591995239258</v>
+      </c>
+      <c r="D110" t="n">
+        <v>108</v>
+      </c>
+      <c r="E110" t="n">
+        <v>88</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G110" t="n">
+        <v>12</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.005415439605712891</v>
+      </c>
+      <c r="B111" t="n">
+        <v>20</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0002707719802856445</v>
+      </c>
+      <c r="D111" t="n">
+        <v>108</v>
+      </c>
+      <c r="E111" t="n">
+        <v>88</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G111" t="n">
+        <v>12</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.005558252334594727</v>
+      </c>
+      <c r="B112" t="n">
+        <v>20</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0002779126167297363</v>
+      </c>
+      <c r="D112" t="n">
+        <v>108</v>
+      </c>
+      <c r="E112" t="n">
+        <v>88</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G112" t="n">
+        <v>12</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.006160497665405273</v>
+      </c>
+      <c r="B113" t="n">
+        <v>20</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0003080248832702637</v>
+      </c>
+      <c r="D113" t="n">
+        <v>108</v>
+      </c>
+      <c r="E113" t="n">
+        <v>88</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G113" t="n">
+        <v>12</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.005517482757568359</v>
+      </c>
+      <c r="B114" t="n">
+        <v>20</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0002758741378784179</v>
+      </c>
+      <c r="D114" t="n">
+        <v>108</v>
+      </c>
+      <c r="E114" t="n">
+        <v>88</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G114" t="n">
+        <v>12</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.005002021789550781</v>
+      </c>
+      <c r="B115" t="n">
+        <v>20</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.0002501010894775391</v>
+      </c>
+      <c r="D115" t="n">
+        <v>108</v>
+      </c>
+      <c r="E115" t="n">
+        <v>88</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G115" t="n">
+        <v>12</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.004397392272949219</v>
+      </c>
+      <c r="B116" t="n">
+        <v>20</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.0002198696136474609</v>
+      </c>
+      <c r="D116" t="n">
+        <v>108</v>
+      </c>
+      <c r="E116" t="n">
+        <v>88</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G116" t="n">
+        <v>12</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.005002737045288086</v>
+      </c>
+      <c r="B117" t="n">
+        <v>20</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0002501368522644043</v>
+      </c>
+      <c r="D117" t="n">
+        <v>108</v>
+      </c>
+      <c r="E117" t="n">
+        <v>88</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G117" t="n">
+        <v>12</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.004041194915771484</v>
+      </c>
+      <c r="B118" t="n">
+        <v>20</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.0002020597457885742</v>
+      </c>
+      <c r="D118" t="n">
+        <v>108</v>
+      </c>
+      <c r="E118" t="n">
+        <v>88</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G118" t="n">
+        <v>12</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.003998756408691406</v>
+      </c>
+      <c r="B119" t="n">
+        <v>20</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.0001999378204345703</v>
+      </c>
+      <c r="D119" t="n">
+        <v>108</v>
+      </c>
+      <c r="E119" t="n">
+        <v>88</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G119" t="n">
+        <v>12</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.004002809524536133</v>
+      </c>
+      <c r="B120" t="n">
+        <v>20</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0002001404762268067</v>
+      </c>
+      <c r="D120" t="n">
+        <v>108</v>
+      </c>
+      <c r="E120" t="n">
+        <v>88</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G120" t="n">
+        <v>12</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.005498409271240234</v>
+      </c>
+      <c r="B121" t="n">
+        <v>20</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.0002749204635620117</v>
+      </c>
+      <c r="D121" t="n">
+        <v>108</v>
+      </c>
+      <c r="E121" t="n">
+        <v>88</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G121" t="n">
+        <v>12</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.004558086395263672</v>
+      </c>
+      <c r="B122" t="n">
+        <v>20</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.0002279043197631836</v>
+      </c>
+      <c r="D122" t="n">
+        <v>108</v>
+      </c>
+      <c r="E122" t="n">
+        <v>88</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G122" t="n">
+        <v>12</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.1250045299530029</v>
+      </c>
+      <c r="B123" t="n">
+        <v>67</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.001865739253029895</v>
+      </c>
+      <c r="D123" t="n">
+        <v>641</v>
+      </c>
+      <c r="E123" t="n">
+        <v>639</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G123" t="n">
+        <v>21</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.1219403743743896</v>
+      </c>
+      <c r="B124" t="n">
+        <v>67</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.001820005587677457</v>
+      </c>
+      <c r="D124" t="n">
+        <v>641</v>
+      </c>
+      <c r="E124" t="n">
+        <v>639</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G124" t="n">
+        <v>21</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.1207621097564697</v>
+      </c>
+      <c r="B125" t="n">
+        <v>67</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.001802419548604026</v>
+      </c>
+      <c r="D125" t="n">
+        <v>641</v>
+      </c>
+      <c r="E125" t="n">
+        <v>639</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G125" t="n">
+        <v>21</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.1234650611877441</v>
+      </c>
+      <c r="B126" t="n">
+        <v>67</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.001842762107279763</v>
+      </c>
+      <c r="D126" t="n">
+        <v>641</v>
+      </c>
+      <c r="E126" t="n">
+        <v>639</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G126" t="n">
+        <v>21</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.1284692287445068</v>
+      </c>
+      <c r="B127" t="n">
+        <v>67</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.001917451175291147</v>
+      </c>
+      <c r="D127" t="n">
+        <v>641</v>
+      </c>
+      <c r="E127" t="n">
+        <v>639</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G127" t="n">
+        <v>21</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.1238641738891602</v>
+      </c>
+      <c r="B128" t="n">
+        <v>67</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.001848719013271047</v>
+      </c>
+      <c r="D128" t="n">
+        <v>641</v>
+      </c>
+      <c r="E128" t="n">
+        <v>639</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G128" t="n">
+        <v>21</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.1273832321166992</v>
+      </c>
+      <c r="B129" t="n">
+        <v>67</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.001901242270398496</v>
+      </c>
+      <c r="D129" t="n">
+        <v>641</v>
+      </c>
+      <c r="E129" t="n">
+        <v>639</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G129" t="n">
+        <v>21</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.1246058940887451</v>
+      </c>
+      <c r="B130" t="n">
+        <v>67</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.001859789464011121</v>
+      </c>
+      <c r="D130" t="n">
+        <v>641</v>
+      </c>
+      <c r="E130" t="n">
+        <v>639</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G130" t="n">
+        <v>21</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.1236860752105713</v>
+      </c>
+      <c r="B131" t="n">
+        <v>67</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.001846060824038378</v>
+      </c>
+      <c r="D131" t="n">
+        <v>641</v>
+      </c>
+      <c r="E131" t="n">
+        <v>639</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G131" t="n">
+        <v>21</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.1272051334381104</v>
+      </c>
+      <c r="B132" t="n">
+        <v>67</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.001898584081165826</v>
+      </c>
+      <c r="D132" t="n">
+        <v>641</v>
+      </c>
+      <c r="E132" t="n">
+        <v>639</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G132" t="n">
+        <v>21</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.1712455749511719</v>
+      </c>
+      <c r="B133" t="n">
+        <v>67</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.002555904103748834</v>
+      </c>
+      <c r="D133" t="n">
+        <v>641</v>
+      </c>
+      <c r="E133" t="n">
+        <v>639</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G133" t="n">
+        <v>21</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.1246030330657959</v>
+      </c>
+      <c r="B134" t="n">
+        <v>67</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.001859746762176058</v>
+      </c>
+      <c r="D134" t="n">
+        <v>641</v>
+      </c>
+      <c r="E134" t="n">
+        <v>639</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G134" t="n">
+        <v>21</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.1258533000946045</v>
+      </c>
+      <c r="B135" t="n">
+        <v>67</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.001878407464098575</v>
+      </c>
+      <c r="D135" t="n">
+        <v>641</v>
+      </c>
+      <c r="E135" t="n">
+        <v>639</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G135" t="n">
+        <v>21</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.1234898567199707</v>
+      </c>
+      <c r="B136" t="n">
+        <v>67</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.001843132189850309</v>
+      </c>
+      <c r="D136" t="n">
+        <v>641</v>
+      </c>
+      <c r="E136" t="n">
+        <v>639</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G136" t="n">
+        <v>21</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.1222796440124512</v>
+      </c>
+      <c r="B137" t="n">
+        <v>67</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.001825069313618674</v>
+      </c>
+      <c r="D137" t="n">
+        <v>641</v>
+      </c>
+      <c r="E137" t="n">
+        <v>639</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G137" t="n">
+        <v>21</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.1267762184143066</v>
+      </c>
+      <c r="B138" t="n">
+        <v>67</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.001892182364392636</v>
+      </c>
+      <c r="D138" t="n">
+        <v>641</v>
+      </c>
+      <c r="E138" t="n">
+        <v>639</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G138" t="n">
+        <v>21</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.1211073398590088</v>
+      </c>
+      <c r="B139" t="n">
+        <v>67</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.001807572236701624</v>
+      </c>
+      <c r="D139" t="n">
+        <v>641</v>
+      </c>
+      <c r="E139" t="n">
+        <v>639</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G139" t="n">
+        <v>21</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.121687650680542</v>
+      </c>
+      <c r="B140" t="n">
+        <v>67</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.001816233592246895</v>
+      </c>
+      <c r="D140" t="n">
+        <v>641</v>
+      </c>
+      <c r="E140" t="n">
+        <v>639</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G140" t="n">
+        <v>21</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.1249122619628906</v>
+      </c>
+      <c r="B141" t="n">
+        <v>67</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.001864362118849114</v>
+      </c>
+      <c r="D141" t="n">
+        <v>641</v>
+      </c>
+      <c r="E141" t="n">
+        <v>639</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G141" t="n">
+        <v>21</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.1274030208587646</v>
+      </c>
+      <c r="B142" t="n">
+        <v>67</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.001901537624757681</v>
+      </c>
+      <c r="D142" t="n">
+        <v>641</v>
+      </c>
+      <c r="E142" t="n">
+        <v>639</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G142" t="n">
+        <v>21</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.06537199020385742</v>
+      </c>
+      <c r="B143" t="n">
+        <v>43</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.001520278841950173</v>
+      </c>
+      <c r="D143" t="n">
+        <v>448</v>
+      </c>
+      <c r="E143" t="n">
+        <v>441</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G143" t="n">
+        <v>19</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.07101964950561523</v>
+      </c>
+      <c r="B144" t="n">
+        <v>43</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.00165161975594454</v>
+      </c>
+      <c r="D144" t="n">
+        <v>448</v>
+      </c>
+      <c r="E144" t="n">
+        <v>441</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G144" t="n">
+        <v>19</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.06437325477600098</v>
+      </c>
+      <c r="B145" t="n">
+        <v>43</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.001497052436651185</v>
+      </c>
+      <c r="D145" t="n">
+        <v>448</v>
+      </c>
+      <c r="E145" t="n">
+        <v>441</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G145" t="n">
+        <v>19</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.0670771598815918</v>
+      </c>
+      <c r="B146" t="n">
+        <v>43</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.001559933950734693</v>
+      </c>
+      <c r="D146" t="n">
+        <v>448</v>
+      </c>
+      <c r="E146" t="n">
+        <v>441</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G146" t="n">
+        <v>19</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.06612706184387207</v>
+      </c>
+      <c r="B147" t="n">
+        <v>43</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.001537838647531909</v>
+      </c>
+      <c r="D147" t="n">
+        <v>448</v>
+      </c>
+      <c r="E147" t="n">
+        <v>441</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G147" t="n">
+        <v>19</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.06638193130493164</v>
+      </c>
+      <c r="B148" t="n">
+        <v>43</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.001543765844300736</v>
+      </c>
+      <c r="D148" t="n">
+        <v>448</v>
+      </c>
+      <c r="E148" t="n">
+        <v>441</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G148" t="n">
+        <v>19</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.06608986854553223</v>
+      </c>
+      <c r="B149" t="n">
+        <v>43</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.001536973687105401</v>
+      </c>
+      <c r="D149" t="n">
+        <v>448</v>
+      </c>
+      <c r="E149" t="n">
+        <v>441</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G149" t="n">
+        <v>19</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.06407690048217773</v>
+      </c>
+      <c r="B150" t="n">
+        <v>43</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.001490160476329715</v>
+      </c>
+      <c r="D150" t="n">
+        <v>448</v>
+      </c>
+      <c r="E150" t="n">
+        <v>441</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G150" t="n">
+        <v>19</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.06686305999755859</v>
+      </c>
+      <c r="B151" t="n">
+        <v>43</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.001554954883664153</v>
+      </c>
+      <c r="D151" t="n">
+        <v>448</v>
+      </c>
+      <c r="E151" t="n">
+        <v>441</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G151" t="n">
+        <v>19</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.06824016571044922</v>
+      </c>
+      <c r="B152" t="n">
+        <v>43</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.001586980597917424</v>
+      </c>
+      <c r="D152" t="n">
+        <v>448</v>
+      </c>
+      <c r="E152" t="n">
+        <v>441</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G152" t="n">
+        <v>19</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.06796622276306152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>43</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.001580609831699105</v>
+      </c>
+      <c r="D153" t="n">
+        <v>448</v>
+      </c>
+      <c r="E153" t="n">
+        <v>441</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G153" t="n">
+        <v>19</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.06723451614379883</v>
+      </c>
+      <c r="B154" t="n">
+        <v>43</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.001563593398692996</v>
+      </c>
+      <c r="D154" t="n">
+        <v>448</v>
+      </c>
+      <c r="E154" t="n">
+        <v>441</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G154" t="n">
+        <v>19</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.06559205055236816</v>
+      </c>
+      <c r="B155" t="n">
+        <v>43</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.001525396524473678</v>
+      </c>
+      <c r="D155" t="n">
+        <v>448</v>
+      </c>
+      <c r="E155" t="n">
+        <v>441</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G155" t="n">
+        <v>19</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.06631875038146973</v>
+      </c>
+      <c r="B156" t="n">
+        <v>43</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.001542296520499296</v>
+      </c>
+      <c r="D156" t="n">
+        <v>448</v>
+      </c>
+      <c r="E156" t="n">
+        <v>441</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G156" t="n">
+        <v>19</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.06655216217041016</v>
+      </c>
+      <c r="B157" t="n">
+        <v>43</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.001547724701637446</v>
+      </c>
+      <c r="D157" t="n">
+        <v>448</v>
+      </c>
+      <c r="E157" t="n">
+        <v>441</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G157" t="n">
+        <v>19</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.06691455841064453</v>
+      </c>
+      <c r="B158" t="n">
+        <v>43</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.00155615252117778</v>
+      </c>
+      <c r="D158" t="n">
+        <v>448</v>
+      </c>
+      <c r="E158" t="n">
+        <v>441</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G158" t="n">
+        <v>19</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.07100152969360352</v>
+      </c>
+      <c r="B159" t="n">
+        <v>43</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.001651198364967524</v>
+      </c>
+      <c r="D159" t="n">
+        <v>448</v>
+      </c>
+      <c r="E159" t="n">
+        <v>441</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G159" t="n">
+        <v>19</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.06577658653259277</v>
+      </c>
+      <c r="B160" t="n">
+        <v>43</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.001529688058897506</v>
+      </c>
+      <c r="D160" t="n">
+        <v>448</v>
+      </c>
+      <c r="E160" t="n">
+        <v>441</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G160" t="n">
+        <v>19</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.06576037406921387</v>
+      </c>
+      <c r="B161" t="n">
+        <v>43</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.001529311024865439</v>
+      </c>
+      <c r="D161" t="n">
+        <v>448</v>
+      </c>
+      <c r="E161" t="n">
+        <v>441</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G161" t="n">
+        <v>19</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.06652188301086426</v>
+      </c>
+      <c r="B162" t="n">
+        <v>43</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.001547020535136378</v>
+      </c>
+      <c r="D162" t="n">
+        <v>448</v>
+      </c>
+      <c r="E162" t="n">
+        <v>441</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G162" t="n">
+        <v>19</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.02005243301391602</v>
+      </c>
+      <c r="B163" t="n">
+        <v>37</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.0005419576490247571</v>
+      </c>
+      <c r="D163" t="n">
+        <v>262</v>
+      </c>
+      <c r="E163" t="n">
+        <v>227</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G163" t="n">
+        <v>17</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.02107906341552734</v>
+      </c>
+      <c r="B164" t="n">
+        <v>37</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.0005697044166358741</v>
+      </c>
+      <c r="D164" t="n">
+        <v>262</v>
+      </c>
+      <c r="E164" t="n">
+        <v>227</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G164" t="n">
+        <v>17</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.02105426788330078</v>
+      </c>
+      <c r="B165" t="n">
+        <v>37</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.0005690342671162373</v>
+      </c>
+      <c r="D165" t="n">
+        <v>262</v>
+      </c>
+      <c r="E165" t="n">
+        <v>227</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G165" t="n">
+        <v>17</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.01976156234741211</v>
+      </c>
+      <c r="B166" t="n">
+        <v>37</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.0005340962796597867</v>
+      </c>
+      <c r="D166" t="n">
+        <v>262</v>
+      </c>
+      <c r="E166" t="n">
+        <v>227</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G166" t="n">
+        <v>17</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.0229346752166748</v>
+      </c>
+      <c r="B167" t="n">
+        <v>37</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.0006198560869371569</v>
+      </c>
+      <c r="D167" t="n">
+        <v>262</v>
+      </c>
+      <c r="E167" t="n">
+        <v>227</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G167" t="n">
+        <v>17</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.02084851264953613</v>
+      </c>
+      <c r="B168" t="n">
+        <v>37</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.0005634733148523279</v>
+      </c>
+      <c r="D168" t="n">
+        <v>262</v>
+      </c>
+      <c r="E168" t="n">
+        <v>227</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G168" t="n">
+        <v>17</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.02092576026916504</v>
+      </c>
+      <c r="B169" t="n">
+        <v>37</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.0005655610883558118</v>
+      </c>
+      <c r="D169" t="n">
+        <v>262</v>
+      </c>
+      <c r="E169" t="n">
+        <v>227</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G169" t="n">
+        <v>17</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.01991558074951172</v>
+      </c>
+      <c r="B170" t="n">
+        <v>37</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.0005382589391759924</v>
+      </c>
+      <c r="D170" t="n">
+        <v>262</v>
+      </c>
+      <c r="E170" t="n">
+        <v>227</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G170" t="n">
+        <v>17</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.02110886573791504</v>
+      </c>
+      <c r="B171" t="n">
+        <v>37</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.0005705098848085146</v>
+      </c>
+      <c r="D171" t="n">
+        <v>262</v>
+      </c>
+      <c r="E171" t="n">
+        <v>227</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G171" t="n">
+        <v>17</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.02003645896911621</v>
+      </c>
+      <c r="B172" t="n">
+        <v>37</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.0005415259180842219</v>
+      </c>
+      <c r="D172" t="n">
+        <v>262</v>
+      </c>
+      <c r="E172" t="n">
+        <v>227</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G172" t="n">
+        <v>17</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.02129817008972168</v>
+      </c>
+      <c r="B173" t="n">
+        <v>37</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.0005756262186411265</v>
+      </c>
+      <c r="D173" t="n">
+        <v>262</v>
+      </c>
+      <c r="E173" t="n">
+        <v>227</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G173" t="n">
+        <v>17</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.02005720138549805</v>
+      </c>
+      <c r="B174" t="n">
+        <v>37</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.0005420865239323797</v>
+      </c>
+      <c r="D174" t="n">
+        <v>262</v>
+      </c>
+      <c r="E174" t="n">
+        <v>227</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G174" t="n">
+        <v>17</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.02102780342102051</v>
+      </c>
+      <c r="B175" t="n">
+        <v>37</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.0005683190113789326</v>
+      </c>
+      <c r="D175" t="n">
+        <v>262</v>
+      </c>
+      <c r="E175" t="n">
+        <v>227</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G175" t="n">
+        <v>17</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.01903486251831055</v>
+      </c>
+      <c r="B176" t="n">
+        <v>37</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.0005144557437381229</v>
+      </c>
+      <c r="D176" t="n">
+        <v>262</v>
+      </c>
+      <c r="E176" t="n">
+        <v>227</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G176" t="n">
+        <v>17</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.02009892463684082</v>
+      </c>
+      <c r="B177" t="n">
+        <v>37</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.0005432141793740762</v>
+      </c>
+      <c r="D177" t="n">
+        <v>262</v>
+      </c>
+      <c r="E177" t="n">
+        <v>227</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G177" t="n">
+        <v>17</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.02206134796142578</v>
+      </c>
+      <c r="B178" t="n">
+        <v>37</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.0005962526476061022</v>
+      </c>
+      <c r="D178" t="n">
+        <v>262</v>
+      </c>
+      <c r="E178" t="n">
+        <v>227</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G178" t="n">
+        <v>17</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.02115488052368164</v>
+      </c>
+      <c r="B179" t="n">
+        <v>37</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.0005717535276670713</v>
+      </c>
+      <c r="D179" t="n">
+        <v>262</v>
+      </c>
+      <c r="E179" t="n">
+        <v>227</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G179" t="n">
+        <v>17</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.02093839645385742</v>
+      </c>
+      <c r="B180" t="n">
+        <v>37</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.0005659026068610114</v>
+      </c>
+      <c r="D180" t="n">
+        <v>262</v>
+      </c>
+      <c r="E180" t="n">
+        <v>227</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G180" t="n">
+        <v>17</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.02158188819885254</v>
+      </c>
+      <c r="B181" t="n">
+        <v>37</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.0005832942756446632</v>
+      </c>
+      <c r="D181" t="n">
+        <v>262</v>
+      </c>
+      <c r="E181" t="n">
+        <v>227</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G181" t="n">
+        <v>17</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.02006793022155762</v>
+      </c>
+      <c r="B182" t="n">
+        <v>37</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.0005423764924745302</v>
+      </c>
+      <c r="D182" t="n">
+        <v>262</v>
+      </c>
+      <c r="E182" t="n">
+        <v>227</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G182" t="n">
+        <v>17</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.006518363952636719</v>
+      </c>
+      <c r="B183" t="n">
+        <v>17</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.0003834331736845129</v>
+      </c>
+      <c r="D183" t="n">
+        <v>90</v>
+      </c>
+      <c r="E183" t="n">
+        <v>73</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G183" t="n">
+        <v>12</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.003723621368408203</v>
+      </c>
+      <c r="B184" t="n">
+        <v>17</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.0002190365510828355</v>
+      </c>
+      <c r="D184" t="n">
+        <v>90</v>
+      </c>
+      <c r="E184" t="n">
+        <v>73</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G184" t="n">
+        <v>12</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.004000186920166016</v>
+      </c>
+      <c r="B185" t="n">
+        <v>17</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.0002353051129509421</v>
+      </c>
+      <c r="D185" t="n">
+        <v>90</v>
+      </c>
+      <c r="E185" t="n">
+        <v>73</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G185" t="n">
+        <v>12</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.003995418548583984</v>
+      </c>
+      <c r="B186" t="n">
+        <v>17</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.0002350246205049403</v>
+      </c>
+      <c r="D186" t="n">
+        <v>90</v>
+      </c>
+      <c r="E186" t="n">
+        <v>73</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G186" t="n">
+        <v>12</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.004999160766601562</v>
+      </c>
+      <c r="B187" t="n">
+        <v>17</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.0002940682803883272</v>
+      </c>
+      <c r="D187" t="n">
+        <v>90</v>
+      </c>
+      <c r="E187" t="n">
+        <v>73</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G187" t="n">
+        <v>12</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.003542184829711914</v>
+      </c>
+      <c r="B188" t="n">
+        <v>17</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.0002083638135124655</v>
+      </c>
+      <c r="D188" t="n">
+        <v>90</v>
+      </c>
+      <c r="E188" t="n">
+        <v>73</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G188" t="n">
+        <v>12</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.005511283874511719</v>
+      </c>
+      <c r="B189" t="n">
+        <v>17</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.0003241931690889246</v>
+      </c>
+      <c r="D189" t="n">
+        <v>90</v>
+      </c>
+      <c r="E189" t="n">
+        <v>73</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G189" t="n">
+        <v>12</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.004506349563598633</v>
+      </c>
+      <c r="B190" t="n">
+        <v>17</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.0002650793860940372</v>
+      </c>
+      <c r="D190" t="n">
+        <v>90</v>
+      </c>
+      <c r="E190" t="n">
+        <v>73</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G190" t="n">
+        <v>12</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.003999471664428711</v>
+      </c>
+      <c r="B191" t="n">
+        <v>17</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.0002352630390840418</v>
+      </c>
+      <c r="D191" t="n">
+        <v>90</v>
+      </c>
+      <c r="E191" t="n">
+        <v>73</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G191" t="n">
+        <v>12</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.004004478454589844</v>
+      </c>
+      <c r="B192" t="n">
+        <v>17</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.0002355575561523438</v>
+      </c>
+      <c r="D192" t="n">
+        <v>90</v>
+      </c>
+      <c r="E192" t="n">
+        <v>73</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G192" t="n">
+        <v>12</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.004018545150756836</v>
+      </c>
+      <c r="B193" t="n">
+        <v>17</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.0002363850088680492</v>
+      </c>
+      <c r="D193" t="n">
+        <v>90</v>
+      </c>
+      <c r="E193" t="n">
+        <v>73</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G193" t="n">
+        <v>12</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.004008293151855469</v>
+      </c>
+      <c r="B194" t="n">
+        <v>17</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.0002357819501091452</v>
+      </c>
+      <c r="D194" t="n">
+        <v>90</v>
+      </c>
+      <c r="E194" t="n">
+        <v>73</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G194" t="n">
+        <v>12</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.003998994827270508</v>
+      </c>
+      <c r="B195" t="n">
+        <v>17</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.0002352349898394416</v>
+      </c>
+      <c r="D195" t="n">
+        <v>90</v>
+      </c>
+      <c r="E195" t="n">
+        <v>73</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G195" t="n">
+        <v>12</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.004195451736450195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>17</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.0002467912786147173</v>
+      </c>
+      <c r="D196" t="n">
+        <v>90</v>
+      </c>
+      <c r="E196" t="n">
+        <v>73</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G196" t="n">
+        <v>12</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.003952741622924805</v>
+      </c>
+      <c r="B197" t="n">
+        <v>17</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.0002325142131132238</v>
+      </c>
+      <c r="D197" t="n">
+        <v>90</v>
+      </c>
+      <c r="E197" t="n">
+        <v>73</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G197" t="n">
+        <v>12</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.004525661468505859</v>
+      </c>
+      <c r="B198" t="n">
+        <v>17</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.0002662153805003446</v>
+      </c>
+      <c r="D198" t="n">
+        <v>90</v>
+      </c>
+      <c r="E198" t="n">
+        <v>73</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G198" t="n">
+        <v>12</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.00350499153137207</v>
+      </c>
+      <c r="B199" t="n">
+        <v>17</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.0002061759724336512</v>
+      </c>
+      <c r="D199" t="n">
+        <v>90</v>
+      </c>
+      <c r="E199" t="n">
+        <v>73</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G199" t="n">
+        <v>12</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.003591060638427734</v>
+      </c>
+      <c r="B200" t="n">
+        <v>17</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.0002112388610839844</v>
+      </c>
+      <c r="D200" t="n">
+        <v>90</v>
+      </c>
+      <c r="E200" t="n">
+        <v>73</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G200" t="n">
+        <v>12</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.004514217376708984</v>
+      </c>
+      <c r="B201" t="n">
+        <v>17</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.0002655421986299403</v>
+      </c>
+      <c r="D201" t="n">
+        <v>90</v>
+      </c>
+      <c r="E201" t="n">
+        <v>73</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G201" t="n">
+        <v>12</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.003570318222045898</v>
+      </c>
+      <c r="B202" t="n">
+        <v>17</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.0002100187189438764</v>
+      </c>
+      <c r="D202" t="n">
+        <v>90</v>
+      </c>
+      <c r="E202" t="n">
+        <v>73</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G202" t="n">
+        <v>12</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.1506462097167969</v>
+      </c>
+      <c r="B203" t="n">
+        <v>400</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.0003766155242919922</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G203" t="n">
+        <v>21</v>
+      </c>
+      <c r="H203" t="n">
+        <v>5</v>
+      </c>
+      <c r="I203" t="n">
+        <v>30</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.1492605209350586</v>
+      </c>
+      <c r="B204" t="n">
+        <v>400</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.0003731513023376465</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G204" t="n">
+        <v>21</v>
+      </c>
+      <c r="H204" t="n">
+        <v>5</v>
+      </c>
+      <c r="I204" t="n">
+        <v>30</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.1510064601898193</v>
+      </c>
+      <c r="B205" t="n">
+        <v>400</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.0003775161504745483</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G205" t="n">
+        <v>21</v>
+      </c>
+      <c r="H205" t="n">
+        <v>5</v>
+      </c>
+      <c r="I205" t="n">
+        <v>30</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.1470344066619873</v>
+      </c>
+      <c r="B206" t="n">
+        <v>400</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.0003675860166549682</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G206" t="n">
+        <v>21</v>
+      </c>
+      <c r="H206" t="n">
+        <v>5</v>
+      </c>
+      <c r="I206" t="n">
+        <v>30</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.1494071483612061</v>
+      </c>
+      <c r="B207" t="n">
+        <v>400</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.0003735178709030151</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G207" t="n">
+        <v>21</v>
+      </c>
+      <c r="H207" t="n">
+        <v>5</v>
+      </c>
+      <c r="I207" t="n">
+        <v>30</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.1596353054046631</v>
+      </c>
+      <c r="B208" t="n">
+        <v>400</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.0003990882635116577</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G208" t="n">
+        <v>21</v>
+      </c>
+      <c r="H208" t="n">
+        <v>5</v>
+      </c>
+      <c r="I208" t="n">
+        <v>30</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.158043384552002</v>
+      </c>
+      <c r="B209" t="n">
+        <v>400</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.0003951084613800049</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G209" t="n">
+        <v>21</v>
+      </c>
+      <c r="H209" t="n">
+        <v>5</v>
+      </c>
+      <c r="I209" t="n">
+        <v>30</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.1581015586853027</v>
+      </c>
+      <c r="B210" t="n">
+        <v>400</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.0003952538967132568</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G210" t="n">
+        <v>21</v>
+      </c>
+      <c r="H210" t="n">
+        <v>5</v>
+      </c>
+      <c r="I210" t="n">
+        <v>30</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.19390869140625</v>
+      </c>
+      <c r="B211" t="n">
+        <v>400</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.000484771728515625</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G211" t="n">
+        <v>21</v>
+      </c>
+      <c r="H211" t="n">
+        <v>5</v>
+      </c>
+      <c r="I211" t="n">
+        <v>30</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.1459987163543701</v>
+      </c>
+      <c r="B212" t="n">
+        <v>400</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.0003649967908859253</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G212" t="n">
+        <v>21</v>
+      </c>
+      <c r="H212" t="n">
+        <v>5</v>
+      </c>
+      <c r="I212" t="n">
+        <v>30</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.1499552726745605</v>
+      </c>
+      <c r="B213" t="n">
+        <v>400</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.0003748881816864014</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G213" t="n">
+        <v>21</v>
+      </c>
+      <c r="H213" t="n">
+        <v>5</v>
+      </c>
+      <c r="I213" t="n">
+        <v>30</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.1589932441711426</v>
+      </c>
+      <c r="B214" t="n">
+        <v>400</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.0003974831104278564</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G214" t="n">
+        <v>21</v>
+      </c>
+      <c r="H214" t="n">
+        <v>5</v>
+      </c>
+      <c r="I214" t="n">
+        <v>30</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.160797119140625</v>
+      </c>
+      <c r="B215" t="n">
+        <v>400</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.0004019927978515625</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G215" t="n">
+        <v>21</v>
+      </c>
+      <c r="H215" t="n">
+        <v>5</v>
+      </c>
+      <c r="I215" t="n">
+        <v>30</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.1490192413330078</v>
+      </c>
+      <c r="B216" t="n">
+        <v>400</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.0003725481033325195</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G216" t="n">
+        <v>21</v>
+      </c>
+      <c r="H216" t="n">
+        <v>5</v>
+      </c>
+      <c r="I216" t="n">
+        <v>30</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.1570010185241699</v>
+      </c>
+      <c r="B217" t="n">
+        <v>400</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.0003925025463104248</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G217" t="n">
+        <v>21</v>
+      </c>
+      <c r="H217" t="n">
+        <v>5</v>
+      </c>
+      <c r="I217" t="n">
+        <v>30</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.1510045528411865</v>
+      </c>
+      <c r="B218" t="n">
+        <v>400</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.0003775113821029663</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G218" t="n">
+        <v>21</v>
+      </c>
+      <c r="H218" t="n">
+        <v>5</v>
+      </c>
+      <c r="I218" t="n">
+        <v>30</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.1649703979492188</v>
+      </c>
+      <c r="B219" t="n">
+        <v>400</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.0004124259948730469</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G219" t="n">
+        <v>21</v>
+      </c>
+      <c r="H219" t="n">
+        <v>5</v>
+      </c>
+      <c r="I219" t="n">
+        <v>30</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.1634016036987305</v>
+      </c>
+      <c r="B220" t="n">
+        <v>400</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.0004085040092468262</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G220" t="n">
+        <v>21</v>
+      </c>
+      <c r="H220" t="n">
+        <v>5</v>
+      </c>
+      <c r="I220" t="n">
+        <v>30</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.1570010185241699</v>
+      </c>
+      <c r="B221" t="n">
+        <v>400</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.0003925025463104248</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G221" t="n">
+        <v>21</v>
+      </c>
+      <c r="H221" t="n">
+        <v>5</v>
+      </c>
+      <c r="I221" t="n">
+        <v>30</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.1925241947174072</v>
+      </c>
+      <c r="B222" t="n">
+        <v>400</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.0004813104867935181</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G222" t="n">
+        <v>21</v>
+      </c>
+      <c r="H222" t="n">
+        <v>5</v>
+      </c>
+      <c r="I222" t="n">
+        <v>30</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.2192897796630859</v>
+      </c>
+      <c r="B223" t="n">
+        <v>167</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.001313112453072371</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G223" t="n">
+        <v>19</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>19</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.2331240177154541</v>
+      </c>
+      <c r="B224" t="n">
+        <v>167</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.001395952201888947</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G224" t="n">
+        <v>19</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>19</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.2303905487060547</v>
+      </c>
+      <c r="B225" t="n">
+        <v>167</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.001379584123988351</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G225" t="n">
+        <v>19</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>19</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.2198679447174072</v>
+      </c>
+      <c r="B226" t="n">
+        <v>167</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.001316574519265912</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G226" t="n">
+        <v>19</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>19</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.2410037517547607</v>
+      </c>
+      <c r="B227" t="n">
+        <v>167</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.00144313623805246</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G227" t="n">
+        <v>19</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>19</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.2331774234771729</v>
+      </c>
+      <c r="B228" t="n">
+        <v>167</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.001396271996869298</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G228" t="n">
+        <v>19</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>19</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.2189977169036865</v>
+      </c>
+      <c r="B229" t="n">
+        <v>167</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.001311363574273572</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G229" t="n">
+        <v>19</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>19</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.2546415328979492</v>
+      </c>
+      <c r="B230" t="n">
+        <v>167</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.001524799598191313</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F230" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G230" t="n">
+        <v>19</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>19</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.220980167388916</v>
+      </c>
+      <c r="B231" t="n">
+        <v>167</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.00132323453526297</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G231" t="n">
+        <v>19</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>19</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.2204129695892334</v>
+      </c>
+      <c r="B232" t="n">
+        <v>167</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.001319838141252895</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F232" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G232" t="n">
+        <v>19</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>19</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.2174787521362305</v>
+      </c>
+      <c r="B233" t="n">
+        <v>167</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.001302267976863655</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G233" t="n">
+        <v>19</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>19</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.2176244258880615</v>
+      </c>
+      <c r="B234" t="n">
+        <v>167</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.001303140274778812</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G234" t="n">
+        <v>19</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>19</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.2170183658599854</v>
+      </c>
+      <c r="B235" t="n">
+        <v>167</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.001299511172814283</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G235" t="n">
+        <v>19</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>19</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.2200007438659668</v>
+      </c>
+      <c r="B236" t="n">
+        <v>167</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.001317369723748304</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G236" t="n">
+        <v>19</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>19</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.2219970226287842</v>
+      </c>
+      <c r="B237" t="n">
+        <v>167</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.001329323488795115</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G237" t="n">
+        <v>19</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>19</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.2129433155059814</v>
+      </c>
+      <c r="B238" t="n">
+        <v>167</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.001275109673688512</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G238" t="n">
+        <v>19</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>19</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.2092311382293701</v>
+      </c>
+      <c r="B239" t="n">
+        <v>167</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.001252881067241737</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G239" t="n">
+        <v>19</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>19</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.2148845195770264</v>
+      </c>
+      <c r="B240" t="n">
+        <v>167</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.001286733650161835</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G240" t="n">
+        <v>19</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>19</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.2110462188720703</v>
+      </c>
+      <c r="B241" t="n">
+        <v>167</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.001263749813605211</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G241" t="n">
+        <v>19</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>19</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.2170064449310303</v>
+      </c>
+      <c r="B242" t="n">
+        <v>167</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.001299439790006169</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G242" t="n">
+        <v>19</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>19</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.5262157917022705</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.0004323876677915123</v>
+      </c>
+      <c r="D243" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E243" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G243" t="n">
+        <v>17</v>
+      </c>
+      <c r="H243" t="n">
+        <v>31</v>
+      </c>
+      <c r="I243" t="n">
+        <v>123</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.5540316104888916</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.0004552437226695905</v>
+      </c>
+      <c r="D244" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E244" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G244" t="n">
+        <v>17</v>
+      </c>
+      <c r="H244" t="n">
+        <v>31</v>
+      </c>
+      <c r="I244" t="n">
+        <v>123</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.5613112449645996</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.0004612253450818403</v>
+      </c>
+      <c r="D245" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E245" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F245" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G245" t="n">
+        <v>17</v>
+      </c>
+      <c r="H245" t="n">
+        <v>31</v>
+      </c>
+      <c r="I245" t="n">
+        <v>123</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.52716064453125</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.0004331640464513147</v>
+      </c>
+      <c r="D246" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E246" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G246" t="n">
+        <v>17</v>
+      </c>
+      <c r="H246" t="n">
+        <v>31</v>
+      </c>
+      <c r="I246" t="n">
+        <v>123</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.5305519104003906</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.0004359506248154401</v>
+      </c>
+      <c r="D247" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E247" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G247" t="n">
+        <v>17</v>
+      </c>
+      <c r="H247" t="n">
+        <v>31</v>
+      </c>
+      <c r="I247" t="n">
+        <v>123</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.5363717079162598</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.0004407327098736728</v>
+      </c>
+      <c r="D248" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E248" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G248" t="n">
+        <v>17</v>
+      </c>
+      <c r="H248" t="n">
+        <v>31</v>
+      </c>
+      <c r="I248" t="n">
+        <v>123</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.5292596817016602</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.0004348888099438456</v>
+      </c>
+      <c r="D249" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E249" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G249" t="n">
+        <v>17</v>
+      </c>
+      <c r="H249" t="n">
+        <v>31</v>
+      </c>
+      <c r="I249" t="n">
+        <v>123</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.5277957916259766</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.0004336859421741796</v>
+      </c>
+      <c r="D250" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E250" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G250" t="n">
+        <v>17</v>
+      </c>
+      <c r="H250" t="n">
+        <v>31</v>
+      </c>
+      <c r="I250" t="n">
+        <v>123</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.5295195579528809</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.0004351023483589818</v>
+      </c>
+      <c r="D251" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E251" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G251" t="n">
+        <v>17</v>
+      </c>
+      <c r="H251" t="n">
+        <v>31</v>
+      </c>
+      <c r="I251" t="n">
+        <v>123</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.5371334552764893</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.0004413586321088655</v>
+      </c>
+      <c r="D252" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E252" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G252" t="n">
+        <v>17</v>
+      </c>
+      <c r="H252" t="n">
+        <v>31</v>
+      </c>
+      <c r="I252" t="n">
+        <v>123</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.5339810848236084</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.000438768352361223</v>
+      </c>
+      <c r="D253" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E253" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G253" t="n">
+        <v>17</v>
+      </c>
+      <c r="H253" t="n">
+        <v>31</v>
+      </c>
+      <c r="I253" t="n">
+        <v>123</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.5774602890014648</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.0004744948964679251</v>
+      </c>
+      <c r="D254" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E254" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G254" t="n">
+        <v>17</v>
+      </c>
+      <c r="H254" t="n">
+        <v>31</v>
+      </c>
+      <c r="I254" t="n">
+        <v>123</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.5346488952636719</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.000439317087316082</v>
+      </c>
+      <c r="D255" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E255" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G255" t="n">
+        <v>17</v>
+      </c>
+      <c r="H255" t="n">
+        <v>31</v>
+      </c>
+      <c r="I255" t="n">
+        <v>123</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.5752665996551514</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.0004726923579746519</v>
+      </c>
+      <c r="D256" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E256" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G256" t="n">
+        <v>17</v>
+      </c>
+      <c r="H256" t="n">
+        <v>31</v>
+      </c>
+      <c r="I256" t="n">
+        <v>123</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.5332505702972412</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.0004381680939172072</v>
+      </c>
+      <c r="D257" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E257" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G257" t="n">
+        <v>17</v>
+      </c>
+      <c r="H257" t="n">
+        <v>31</v>
+      </c>
+      <c r="I257" t="n">
+        <v>123</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.5860321521759033</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.0004815383337517694</v>
+      </c>
+      <c r="D258" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E258" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G258" t="n">
+        <v>17</v>
+      </c>
+      <c r="H258" t="n">
+        <v>31</v>
+      </c>
+      <c r="I258" t="n">
+        <v>123</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.5430960655212402</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.0004462580653420216</v>
+      </c>
+      <c r="D259" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E259" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G259" t="n">
+        <v>17</v>
+      </c>
+      <c r="H259" t="n">
+        <v>31</v>
+      </c>
+      <c r="I259" t="n">
+        <v>123</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.5689496994018555</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.0004675018072324203</v>
+      </c>
+      <c r="D260" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E260" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G260" t="n">
+        <v>17</v>
+      </c>
+      <c r="H260" t="n">
+        <v>31</v>
+      </c>
+      <c r="I260" t="n">
+        <v>123</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.5360033512115479</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.0004404300338632275</v>
+      </c>
+      <c r="D261" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E261" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G261" t="n">
+        <v>17</v>
+      </c>
+      <c r="H261" t="n">
+        <v>31</v>
+      </c>
+      <c r="I261" t="n">
+        <v>123</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.5780251026153564</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.0004749589996839412</v>
+      </c>
+      <c r="D262" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E262" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G262" t="n">
+        <v>17</v>
+      </c>
+      <c r="H262" t="n">
+        <v>31</v>
+      </c>
+      <c r="I262" t="n">
+        <v>123</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.01297187805175781</v>
+      </c>
+      <c r="B263" t="n">
+        <v>53</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.0002447524160709021</v>
+      </c>
+      <c r="D263" t="n">
+        <v>257</v>
+      </c>
+      <c r="E263" t="n">
+        <v>215</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G263" t="n">
+        <v>12</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.01391863822937012</v>
+      </c>
+      <c r="B264" t="n">
+        <v>53</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.0002626158156484928</v>
+      </c>
+      <c r="D264" t="n">
+        <v>257</v>
+      </c>
+      <c r="E264" t="n">
+        <v>215</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G264" t="n">
+        <v>12</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.01600241661071777</v>
+      </c>
+      <c r="B265" t="n">
+        <v>53</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.0003019323888814674</v>
+      </c>
+      <c r="D265" t="n">
+        <v>257</v>
+      </c>
+      <c r="E265" t="n">
+        <v>215</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G265" t="n">
+        <v>12</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.01401829719543457</v>
+      </c>
+      <c r="B266" t="n">
+        <v>53</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.0002644961734987655</v>
+      </c>
+      <c r="D266" t="n">
+        <v>257</v>
+      </c>
+      <c r="E266" t="n">
+        <v>215</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G266" t="n">
+        <v>12</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.01307988166809082</v>
+      </c>
+      <c r="B267" t="n">
+        <v>53</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.000246790220152657</v>
+      </c>
+      <c r="D267" t="n">
+        <v>257</v>
+      </c>
+      <c r="E267" t="n">
+        <v>215</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G267" t="n">
+        <v>12</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.01397609710693359</v>
+      </c>
+      <c r="B268" t="n">
+        <v>53</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.0002636999454138414</v>
+      </c>
+      <c r="D268" t="n">
+        <v>257</v>
+      </c>
+      <c r="E268" t="n">
+        <v>215</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G268" t="n">
+        <v>12</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.01399898529052734</v>
+      </c>
+      <c r="B269" t="n">
+        <v>53</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.0002641317979344782</v>
+      </c>
+      <c r="D269" t="n">
+        <v>257</v>
+      </c>
+      <c r="E269" t="n">
+        <v>215</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G269" t="n">
+        <v>12</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.01300716400146484</v>
+      </c>
+      <c r="B270" t="n">
+        <v>53</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.0002454181887068838</v>
+      </c>
+      <c r="D270" t="n">
+        <v>257</v>
+      </c>
+      <c r="E270" t="n">
+        <v>215</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G270" t="n">
+        <v>12</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.01299715042114258</v>
+      </c>
+      <c r="B271" t="n">
+        <v>53</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.0002452292532291052</v>
+      </c>
+      <c r="D271" t="n">
+        <v>257</v>
+      </c>
+      <c r="E271" t="n">
+        <v>215</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G271" t="n">
+        <v>12</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.01301479339599609</v>
+      </c>
+      <c r="B272" t="n">
+        <v>53</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.0002455621395470961</v>
+      </c>
+      <c r="D272" t="n">
+        <v>257</v>
+      </c>
+      <c r="E272" t="n">
+        <v>215</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G272" t="n">
+        <v>12</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.0130162239074707</v>
+      </c>
+      <c r="B273" t="n">
+        <v>53</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.0002455891303296359</v>
+      </c>
+      <c r="D273" t="n">
+        <v>257</v>
+      </c>
+      <c r="E273" t="n">
+        <v>215</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G273" t="n">
+        <v>12</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.01190662384033203</v>
+      </c>
+      <c r="B274" t="n">
+        <v>53</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.0002246532800062647</v>
+      </c>
+      <c r="D274" t="n">
+        <v>257</v>
+      </c>
+      <c r="E274" t="n">
+        <v>215</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G274" t="n">
+        <v>12</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.01201438903808594</v>
+      </c>
+      <c r="B275" t="n">
+        <v>53</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.000226686585624263</v>
+      </c>
+      <c r="D275" t="n">
+        <v>257</v>
+      </c>
+      <c r="E275" t="n">
+        <v>215</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G275" t="n">
+        <v>12</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.01311135292053223</v>
+      </c>
+      <c r="B276" t="n">
+        <v>53</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.0002473840173685326</v>
+      </c>
+      <c r="D276" t="n">
+        <v>257</v>
+      </c>
+      <c r="E276" t="n">
+        <v>215</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G276" t="n">
+        <v>12</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.01300191879272461</v>
+      </c>
+      <c r="B277" t="n">
+        <v>53</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.0002453192225042379</v>
+      </c>
+      <c r="D277" t="n">
+        <v>257</v>
+      </c>
+      <c r="E277" t="n">
+        <v>215</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G277" t="n">
+        <v>12</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.01791667938232422</v>
+      </c>
+      <c r="B278" t="n">
+        <v>53</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.0003380505543834758</v>
+      </c>
+      <c r="D278" t="n">
+        <v>257</v>
+      </c>
+      <c r="E278" t="n">
+        <v>215</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G278" t="n">
+        <v>12</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.01299142837524414</v>
+      </c>
+      <c r="B279" t="n">
+        <v>53</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.0002451212900989461</v>
+      </c>
+      <c r="D279" t="n">
+        <v>257</v>
+      </c>
+      <c r="E279" t="n">
+        <v>215</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G279" t="n">
+        <v>12</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.01298165321350098</v>
+      </c>
+      <c r="B280" t="n">
+        <v>53</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.0002449368530849241</v>
+      </c>
+      <c r="D280" t="n">
+        <v>257</v>
+      </c>
+      <c r="E280" t="n">
+        <v>215</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G280" t="n">
+        <v>12</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.01299643516540527</v>
+      </c>
+      <c r="B281" t="n">
+        <v>53</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.0002452157578378354</v>
+      </c>
+      <c r="D281" t="n">
+        <v>257</v>
+      </c>
+      <c r="E281" t="n">
+        <v>215</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G281" t="n">
+        <v>12</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.01299619674682617</v>
+      </c>
+      <c r="B282" t="n">
+        <v>53</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.0002452112593740787</v>
+      </c>
+      <c r="D282" t="n">
+        <v>257</v>
+      </c>
+      <c r="E282" t="n">
+        <v>215</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G282" t="n">
+        <v>12</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
         <v>0.01298832893371582</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B283" t="n">
         <v>53</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C283" t="n">
         <v>0.0002450628100701098</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D283" t="n">
         <v>257</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E283" t="n">
         <v>215</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F283" t="n">
         <v>1880</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G283" t="n">
         <v>12</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Lab/aima-python-master/results_heuristics_weighted.xlsx
+++ b/Lab/aima-python-master/results_heuristics_weighted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,2458 +487,2540 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.753402948379517</v>
+        <v>2343497</v>
       </c>
       <c r="B2" t="n">
-        <v>8198</v>
+        <v>2359298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005798247070480016</v>
+        <v>0.9933026688447156</v>
       </c>
       <c r="D2" t="n">
-        <v>10335</v>
+        <v>471478</v>
       </c>
       <c r="E2" t="n">
-        <v>5968</v>
+        <v>2413</v>
       </c>
       <c r="F2" t="n">
-        <v>1799</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>802</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2842</v>
+        <v>2081823</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.749622106552124</v>
+        <v>524290</v>
       </c>
       <c r="B3" t="n">
-        <v>9664</v>
+        <v>524290</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003879989762574632</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>10615</v>
+        <v>24778</v>
       </c>
       <c r="E3" t="n">
-        <v>6312</v>
+        <v>2085</v>
       </c>
       <c r="F3" t="n">
-        <v>1799</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2587</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4352</v>
+        <v>567780</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5204720497131348</v>
+        <v>11266</v>
       </c>
       <c r="B4" t="n">
-        <v>9485</v>
+        <v>11266</v>
       </c>
       <c r="C4" t="n">
-        <v>5.487317340149022e-05</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>11090</v>
+        <v>1377</v>
       </c>
       <c r="E4" t="n">
-        <v>5893</v>
+        <v>1799</v>
       </c>
       <c r="F4" t="n">
-        <v>1799</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3737</v>
+        <v>6895</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1395208835601807</v>
+        <v>524290</v>
       </c>
       <c r="B5" t="n">
-        <v>2318</v>
+        <v>524290</v>
       </c>
       <c r="C5" t="n">
-        <v>6.019019998282168e-05</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>5832</v>
+        <v>24778</v>
       </c>
       <c r="E5" t="n">
-        <v>4772</v>
+        <v>2085</v>
       </c>
       <c r="F5" t="n">
-        <v>1799</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>443</v>
+        <v>567780</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16.16906213760376</v>
+        <v>524290</v>
       </c>
       <c r="B6" t="n">
-        <v>182465</v>
+        <v>524290</v>
       </c>
       <c r="C6" t="n">
-        <v>8.861459533392025e-05</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>378875</v>
+        <v>24778</v>
       </c>
       <c r="E6" t="n">
-        <v>354459</v>
+        <v>2085</v>
       </c>
       <c r="F6" t="n">
-        <v>2085</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3803</v>
-      </c>
-      <c r="I6" t="n">
-        <v>79612</v>
+        <v>567780</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.660804033279419</v>
+        <v>524290</v>
       </c>
       <c r="B7" t="n">
-        <v>8198</v>
+        <v>524290</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004465484305049303</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>10335</v>
+        <v>24778</v>
       </c>
       <c r="E7" t="n">
-        <v>5968</v>
+        <v>2085</v>
       </c>
       <c r="F7" t="n">
-        <v>1799</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>802</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2842</v>
+        <v>567780</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.608107089996338</v>
+        <v>524290</v>
       </c>
       <c r="B8" t="n">
-        <v>9664</v>
+        <v>524290</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003733554521933297</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>10615</v>
+        <v>24778</v>
       </c>
       <c r="E8" t="n">
-        <v>6312</v>
+        <v>2085</v>
       </c>
       <c r="F8" t="n">
-        <v>1799</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2587</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4352</v>
+        <v>567780</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.5015461444854736</v>
+        <v>524290</v>
       </c>
       <c r="B9" t="n">
-        <v>9485</v>
+        <v>524290</v>
       </c>
       <c r="C9" t="n">
-        <v>5.287782229683433e-05</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>11090</v>
+        <v>24778</v>
       </c>
       <c r="E9" t="n">
-        <v>5893</v>
+        <v>2085</v>
       </c>
       <c r="F9" t="n">
-        <v>1799</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3737</v>
+        <v>567780</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2121779918670654</v>
+        <v>524290</v>
       </c>
       <c r="B10" t="n">
-        <v>2318</v>
+        <v>524290</v>
       </c>
       <c r="C10" t="n">
-        <v>9.153494040857008e-05</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>5832</v>
+        <v>24778</v>
       </c>
       <c r="E10" t="n">
-        <v>4772</v>
+        <v>2085</v>
       </c>
       <c r="F10" t="n">
-        <v>1799</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>443</v>
+        <v>567780</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1506462097167969</v>
+        <v>524290</v>
       </c>
       <c r="B11" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003766155242919922</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E11" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F11" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>30</v>
+        <v>567780</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1492605209350586</v>
+        <v>524290</v>
       </c>
       <c r="B12" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003731513023376465</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E12" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F12" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30</v>
+        <v>567780</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1510064601898193</v>
+        <v>524290</v>
       </c>
       <c r="B13" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003775161504745483</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E13" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F13" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>30</v>
+        <v>567780</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1470344066619873</v>
+        <v>524290</v>
       </c>
       <c r="B14" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003675860166549682</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E14" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F14" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>30</v>
+        <v>567780</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1494071483612061</v>
+        <v>524290</v>
       </c>
       <c r="B15" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003735178709030151</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E15" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F15" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>30</v>
+        <v>567780</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1596353054046631</v>
+        <v>524290</v>
       </c>
       <c r="B16" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003990882635116577</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E16" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F16" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
+        <v>567780</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.158043384552002</v>
+        <v>524290</v>
       </c>
       <c r="B17" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0003951084613800049</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E17" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F17" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>30</v>
+        <v>567780</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1581015586853027</v>
+        <v>524290</v>
       </c>
       <c r="B18" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0003952538967132568</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E18" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F18" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>30</v>
+        <v>567780</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.19390869140625</v>
+        <v>524290</v>
       </c>
       <c r="B19" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000484771728515625</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E19" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F19" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>30</v>
+        <v>567780</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1459987163543701</v>
+        <v>524290</v>
       </c>
       <c r="B20" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0003649967908859253</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E20" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F20" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>30</v>
+        <v>567780</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1499552726745605</v>
+        <v>524290</v>
       </c>
       <c r="B21" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0003748881816864014</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E21" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F21" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
+        <v>567780</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.1589932441711426</v>
+        <v>524290</v>
       </c>
       <c r="B22" t="n">
-        <v>400</v>
+        <v>524290</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0003974831104278564</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1857</v>
+        <v>24778</v>
       </c>
       <c r="E22" t="n">
-        <v>1535</v>
+        <v>2085</v>
       </c>
       <c r="F22" t="n">
-        <v>2998</v>
+        <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>30</v>
+        <v>567780</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.160797119140625</v>
+        <v>11266</v>
       </c>
       <c r="B23" t="n">
-        <v>400</v>
+        <v>11266</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004019927978515625</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1857</v>
+        <v>1377</v>
       </c>
       <c r="E23" t="n">
-        <v>1535</v>
+        <v>1799</v>
       </c>
       <c r="F23" t="n">
-        <v>2998</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>30</v>
+        <v>6895</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1490192413330078</v>
+        <v>11266</v>
       </c>
       <c r="B24" t="n">
-        <v>400</v>
+        <v>11266</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0003725481033325195</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1857</v>
+        <v>1377</v>
       </c>
       <c r="E24" t="n">
-        <v>1535</v>
+        <v>1799</v>
       </c>
       <c r="F24" t="n">
-        <v>2998</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>30</v>
+        <v>6895</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.1570010185241699</v>
+        <v>11266</v>
       </c>
       <c r="B25" t="n">
-        <v>400</v>
+        <v>11266</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0003925025463104248</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1857</v>
+        <v>1377</v>
       </c>
       <c r="E25" t="n">
-        <v>1535</v>
+        <v>1799</v>
       </c>
       <c r="F25" t="n">
-        <v>2998</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>30</v>
+        <v>6895</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1510045528411865</v>
+        <v>11266</v>
       </c>
       <c r="B26" t="n">
-        <v>400</v>
+        <v>11266</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0003775113821029663</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1857</v>
+        <v>1377</v>
       </c>
       <c r="E26" t="n">
-        <v>1535</v>
+        <v>1799</v>
       </c>
       <c r="F26" t="n">
-        <v>2998</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>30</v>
+        <v>6895</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1649703979492188</v>
+        <v>11266</v>
       </c>
       <c r="B27" t="n">
-        <v>400</v>
+        <v>11266</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0004124259948730469</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1857</v>
+        <v>1377</v>
       </c>
       <c r="E27" t="n">
-        <v>1535</v>
+        <v>1799</v>
       </c>
       <c r="F27" t="n">
-        <v>2998</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>30</v>
+        <v>6895</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1634016036987305</v>
+        <v>11266</v>
       </c>
       <c r="B28" t="n">
-        <v>400</v>
+        <v>11266</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0004085040092468262</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1857</v>
+        <v>1377</v>
       </c>
       <c r="E28" t="n">
-        <v>1535</v>
+        <v>1799</v>
       </c>
       <c r="F28" t="n">
-        <v>2998</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>30</v>
+        <v>6895</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1570010185241699</v>
+        <v>11266</v>
       </c>
       <c r="B29" t="n">
-        <v>400</v>
+        <v>11266</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0003925025463104248</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1857</v>
+        <v>1377</v>
       </c>
       <c r="E29" t="n">
-        <v>1535</v>
+        <v>1799</v>
       </c>
       <c r="F29" t="n">
-        <v>2998</v>
+        <v>12</v>
       </c>
       <c r="G29" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
-      </c>
-      <c r="I29" t="n">
-        <v>30</v>
+        <v>6895</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1925241947174072</v>
+        <v>11266</v>
       </c>
       <c r="B30" t="n">
-        <v>400</v>
+        <v>11266</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0004813104867935181</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1857</v>
+        <v>1377</v>
       </c>
       <c r="E30" t="n">
-        <v>1535</v>
+        <v>1799</v>
       </c>
       <c r="F30" t="n">
-        <v>2998</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
-      </c>
-      <c r="I30" t="n">
-        <v>30</v>
+        <v>6895</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2192897796630859</v>
+        <v>11266</v>
       </c>
       <c r="B31" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001313112453072371</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E31" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F31" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G31" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
+        <v>6895</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.2331240177154541</v>
+        <v>11266</v>
       </c>
       <c r="B32" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001395952201888947</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E32" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F32" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G32" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>19</v>
+        <v>6895</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2303905487060547</v>
+        <v>11266</v>
       </c>
       <c r="B33" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001379584123988351</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E33" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F33" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G33" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>19</v>
+        <v>6895</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2198679447174072</v>
+        <v>11266</v>
       </c>
       <c r="B34" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001316574519265912</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E34" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F34" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G34" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>19</v>
+        <v>6895</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.2410037517547607</v>
+        <v>11266</v>
       </c>
       <c r="B35" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00144313623805246</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E35" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F35" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G35" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>19</v>
+        <v>6895</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.2331774234771729</v>
+        <v>11266</v>
       </c>
       <c r="B36" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001396271996869298</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E36" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F36" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G36" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>19</v>
+        <v>6895</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.2189977169036865</v>
+        <v>11266</v>
       </c>
       <c r="B37" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001311363574273572</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E37" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F37" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G37" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
+        <v>6895</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.2546415328979492</v>
+        <v>11266</v>
       </c>
       <c r="B38" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001524799598191313</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E38" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F38" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G38" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>19</v>
+        <v>6895</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.220980167388916</v>
+        <v>11266</v>
       </c>
       <c r="B39" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00132323453526297</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E39" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F39" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G39" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>19</v>
+        <v>6895</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2204129695892334</v>
+        <v>11266</v>
       </c>
       <c r="B40" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C40" t="n">
-        <v>0.001319838141252895</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E40" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F40" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G40" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>19</v>
+        <v>6895</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.2174787521362305</v>
+        <v>11266</v>
       </c>
       <c r="B41" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001302267976863655</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E41" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F41" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G41" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>19</v>
+        <v>6895</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.2176244258880615</v>
+        <v>11266</v>
       </c>
       <c r="B42" t="n">
-        <v>167</v>
+        <v>11266</v>
       </c>
       <c r="C42" t="n">
-        <v>0.001303140274778812</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="E42" t="n">
-        <v>1432</v>
+        <v>1799</v>
       </c>
       <c r="F42" t="n">
-        <v>2483</v>
+        <v>12</v>
       </c>
       <c r="G42" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>19</v>
+        <v>6895</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>weighted</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.2170183658599854</v>
+        <v>0.1109213829040527</v>
       </c>
       <c r="B43" t="n">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="C43" t="n">
-        <v>0.001299511172814283</v>
+        <v>0.001498937606811523</v>
       </c>
       <c r="D43" t="n">
-        <v>1338</v>
+        <v>622</v>
       </c>
       <c r="E43" t="n">
-        <v>1432</v>
+        <v>578</v>
       </c>
       <c r="F43" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.2200007438659668</v>
+        <v>0.1068761348724365</v>
       </c>
       <c r="B44" t="n">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="C44" t="n">
-        <v>0.001317369723748304</v>
+        <v>0.001444272092870764</v>
       </c>
       <c r="D44" t="n">
-        <v>1338</v>
+        <v>622</v>
       </c>
       <c r="E44" t="n">
-        <v>1432</v>
+        <v>578</v>
       </c>
       <c r="F44" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.2219970226287842</v>
+        <v>0.1075551509857178</v>
       </c>
       <c r="B45" t="n">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="C45" t="n">
-        <v>0.001329323488795115</v>
+        <v>0.001453447986293483</v>
       </c>
       <c r="D45" t="n">
-        <v>1338</v>
+        <v>622</v>
       </c>
       <c r="E45" t="n">
-        <v>1432</v>
+        <v>578</v>
       </c>
       <c r="F45" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.2129433155059814</v>
+        <v>0.1096291542053223</v>
       </c>
       <c r="B46" t="n">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="C46" t="n">
-        <v>0.001275109673688512</v>
+        <v>0.001481475056828679</v>
       </c>
       <c r="D46" t="n">
-        <v>1338</v>
+        <v>622</v>
       </c>
       <c r="E46" t="n">
-        <v>1432</v>
+        <v>578</v>
       </c>
       <c r="F46" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.2092311382293701</v>
+        <v>0.1074957847595215</v>
       </c>
       <c r="B47" t="n">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="C47" t="n">
-        <v>0.001252881067241737</v>
+        <v>0.001452645739993533</v>
       </c>
       <c r="D47" t="n">
-        <v>1338</v>
+        <v>622</v>
       </c>
       <c r="E47" t="n">
-        <v>1432</v>
+        <v>578</v>
       </c>
       <c r="F47" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.2148845195770264</v>
+        <v>0.1067628860473633</v>
       </c>
       <c r="B48" t="n">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001286733650161835</v>
+        <v>0.001442741703342747</v>
       </c>
       <c r="D48" t="n">
-        <v>1338</v>
+        <v>622</v>
       </c>
       <c r="E48" t="n">
-        <v>1432</v>
+        <v>578</v>
       </c>
       <c r="F48" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.2110462188720703</v>
+        <v>0.1098716259002686</v>
       </c>
       <c r="B49" t="n">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="C49" t="n">
-        <v>0.001263749813605211</v>
+        <v>0.00148475170135498</v>
       </c>
       <c r="D49" t="n">
-        <v>1338</v>
+        <v>622</v>
       </c>
       <c r="E49" t="n">
-        <v>1432</v>
+        <v>578</v>
       </c>
       <c r="F49" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.2170064449310303</v>
+        <v>0.1082534790039062</v>
       </c>
       <c r="B50" t="n">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="C50" t="n">
-        <v>0.001299439790006169</v>
+        <v>0.001462884851404139</v>
       </c>
       <c r="D50" t="n">
-        <v>1338</v>
+        <v>622</v>
       </c>
       <c r="E50" t="n">
-        <v>1432</v>
+        <v>578</v>
       </c>
       <c r="F50" t="n">
-        <v>2483</v>
+        <v>2998</v>
       </c>
       <c r="G50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.5262157917022705</v>
+        <v>0.1101102828979492</v>
       </c>
       <c r="B51" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0004323876677915123</v>
+        <v>0.001487976795918233</v>
       </c>
       <c r="D51" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E51" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F51" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G51" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H51" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.5540316104888916</v>
+        <v>0.1086537837982178</v>
       </c>
       <c r="B52" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0004552437226695905</v>
+        <v>0.001468294375651592</v>
       </c>
       <c r="D52" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E52" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F52" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G52" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H52" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.5613112449645996</v>
+        <v>0.1093356609344482</v>
       </c>
       <c r="B53" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0004612253450818403</v>
+        <v>0.001477508931546598</v>
       </c>
       <c r="D53" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E53" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F53" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G53" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H53" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.52716064453125</v>
+        <v>0.1094660758972168</v>
       </c>
       <c r="B54" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0004331640464513147</v>
+        <v>0.001479271295908335</v>
       </c>
       <c r="D54" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E54" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F54" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G54" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H54" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.5305519104003906</v>
+        <v>0.1085052490234375</v>
       </c>
       <c r="B55" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0004359506248154401</v>
+        <v>0.001466287148965372</v>
       </c>
       <c r="D55" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E55" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F55" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G55" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H55" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.5363717079162598</v>
+        <v>0.1103432178497314</v>
       </c>
       <c r="B56" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0004407327098736728</v>
+        <v>0.001491124565536911</v>
       </c>
       <c r="D56" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E56" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F56" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G56" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H56" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.5292596817016602</v>
+        <v>0.1094706058502197</v>
       </c>
       <c r="B57" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0004348888099438456</v>
+        <v>0.001479332511489456</v>
       </c>
       <c r="D57" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E57" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F57" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G57" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H57" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.5277957916259766</v>
+        <v>0.1125786304473877</v>
       </c>
       <c r="B58" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0004336859421741796</v>
+        <v>0.001521332843883618</v>
       </c>
       <c r="D58" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E58" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F58" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G58" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H58" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.5295195579528809</v>
+        <v>0.1119272708892822</v>
       </c>
       <c r="B59" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0004351023483589818</v>
+        <v>0.001512530687693003</v>
       </c>
       <c r="D59" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E59" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F59" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G59" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H59" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.5371334552764893</v>
+        <v>0.1089200973510742</v>
       </c>
       <c r="B60" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0004413586321088655</v>
+        <v>0.001471893207446949</v>
       </c>
       <c r="D60" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E60" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F60" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G60" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H60" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.5339810848236084</v>
+        <v>0.1096251010894775</v>
       </c>
       <c r="B61" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C61" t="n">
-        <v>0.000438768352361223</v>
+        <v>0.00148142028499294</v>
       </c>
       <c r="D61" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E61" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F61" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G61" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H61" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.5774602890014648</v>
+        <v>0.1098880767822266</v>
       </c>
       <c r="B62" t="n">
-        <v>1217</v>
+        <v>74</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0004744948964679251</v>
+        <v>0.001484974010570629</v>
       </c>
       <c r="D62" t="n">
-        <v>6276</v>
+        <v>622</v>
       </c>
       <c r="E62" t="n">
-        <v>5950</v>
+        <v>578</v>
       </c>
       <c r="F62" t="n">
-        <v>2182</v>
+        <v>2998</v>
       </c>
       <c r="G62" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H62" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.5346488952636719</v>
+        <v>0.0996701717376709</v>
       </c>
       <c r="B63" t="n">
-        <v>1217</v>
+        <v>72</v>
       </c>
       <c r="C63" t="n">
-        <v>0.000439317087316082</v>
+        <v>0.001384307940800985</v>
       </c>
       <c r="D63" t="n">
-        <v>6276</v>
+        <v>672</v>
       </c>
       <c r="E63" t="n">
-        <v>5950</v>
+        <v>653</v>
       </c>
       <c r="F63" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.5752665996551514</v>
+        <v>0.1003000736236572</v>
       </c>
       <c r="B64" t="n">
-        <v>1217</v>
+        <v>72</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0004726923579746519</v>
+        <v>0.00139305657810635</v>
       </c>
       <c r="D64" t="n">
-        <v>6276</v>
+        <v>672</v>
       </c>
       <c r="E64" t="n">
-        <v>5950</v>
+        <v>653</v>
       </c>
       <c r="F64" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H64" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.5332505702972412</v>
+        <v>0.1003096103668213</v>
       </c>
       <c r="B65" t="n">
-        <v>1217</v>
+        <v>72</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0004381680939172072</v>
+        <v>0.001393189032872518</v>
       </c>
       <c r="D65" t="n">
-        <v>6276</v>
+        <v>672</v>
       </c>
       <c r="E65" t="n">
-        <v>5950</v>
+        <v>653</v>
       </c>
       <c r="F65" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.5860321521759033</v>
+        <v>0.1002533435821533</v>
       </c>
       <c r="B66" t="n">
-        <v>1217</v>
+        <v>72</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0004815383337517694</v>
+        <v>0.001392407549752129</v>
       </c>
       <c r="D66" t="n">
-        <v>6276</v>
+        <v>672</v>
       </c>
       <c r="E66" t="n">
-        <v>5950</v>
+        <v>653</v>
       </c>
       <c r="F66" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H66" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.5430960655212402</v>
+        <v>0.101090669631958</v>
       </c>
       <c r="B67" t="n">
-        <v>1217</v>
+        <v>72</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0004462580653420216</v>
+        <v>0.001404037078221639</v>
       </c>
       <c r="D67" t="n">
-        <v>6276</v>
+        <v>672</v>
       </c>
       <c r="E67" t="n">
-        <v>5950</v>
+        <v>653</v>
       </c>
       <c r="F67" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H67" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.5689496994018555</v>
+        <v>0.1008715629577637</v>
       </c>
       <c r="B68" t="n">
-        <v>1217</v>
+        <v>72</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0004675018072324203</v>
+        <v>0.00140099392996894</v>
       </c>
       <c r="D68" t="n">
-        <v>6276</v>
+        <v>672</v>
       </c>
       <c r="E68" t="n">
-        <v>5950</v>
+        <v>653</v>
       </c>
       <c r="F68" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H68" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.5360033512115479</v>
+        <v>0.09937024116516113</v>
       </c>
       <c r="B69" t="n">
-        <v>1217</v>
+        <v>72</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0004404300338632275</v>
+        <v>0.001380142238405016</v>
       </c>
       <c r="D69" t="n">
-        <v>6276</v>
+        <v>672</v>
       </c>
       <c r="E69" t="n">
-        <v>5950</v>
+        <v>653</v>
       </c>
       <c r="F69" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H69" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.5780251026153564</v>
+        <v>0.09990119934082031</v>
       </c>
       <c r="B70" t="n">
-        <v>1217</v>
+        <v>72</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0004749589996839412</v>
+        <v>0.001387516657511393</v>
       </c>
       <c r="D70" t="n">
-        <v>6276</v>
+        <v>672</v>
       </c>
       <c r="E70" t="n">
-        <v>5950</v>
+        <v>653</v>
       </c>
       <c r="F70" t="n">
-        <v>2182</v>
+        <v>2483</v>
       </c>
       <c r="G70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H70" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.01297187805175781</v>
+        <v>0.1002490520477295</v>
       </c>
       <c r="B71" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0002447524160709021</v>
+        <v>0.001392347945107354</v>
       </c>
       <c r="D71" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E71" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F71" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G71" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.01391863822937012</v>
+        <v>0.1022427082061768</v>
       </c>
       <c r="B72" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0002626158156484928</v>
+        <v>0.001420037613974677</v>
       </c>
       <c r="D72" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E72" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F72" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G72" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.01600241661071777</v>
+        <v>0.09975075721740723</v>
       </c>
       <c r="B73" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0003019323888814674</v>
+        <v>0.0013854271835751</v>
       </c>
       <c r="D73" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E73" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F73" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G73" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.01401829719543457</v>
+        <v>0.1006605625152588</v>
       </c>
       <c r="B74" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0002644961734987655</v>
+        <v>0.001398063368267483</v>
       </c>
       <c r="D74" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E74" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F74" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G74" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.01307988166809082</v>
+        <v>0.0990755558013916</v>
       </c>
       <c r="B75" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C75" t="n">
-        <v>0.000246790220152657</v>
+        <v>0.001376049386130439</v>
       </c>
       <c r="D75" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E75" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F75" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G75" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.01397609710693359</v>
+        <v>0.09967160224914551</v>
       </c>
       <c r="B76" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0002636999454138414</v>
+        <v>0.00138432780901591</v>
       </c>
       <c r="D76" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E76" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F76" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G76" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.01399898529052734</v>
+        <v>0.0991218090057373</v>
       </c>
       <c r="B77" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0002641317979344782</v>
+        <v>0.001376691791746351</v>
       </c>
       <c r="D77" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E77" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F77" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G77" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.01300716400146484</v>
+        <v>0.09948492050170898</v>
       </c>
       <c r="B78" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0002454181887068838</v>
+        <v>0.00138173500696818</v>
       </c>
       <c r="D78" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E78" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F78" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G78" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.01299715042114258</v>
+        <v>0.1014535427093506</v>
       </c>
       <c r="B79" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0002452292532291052</v>
+        <v>0.001409076982074314</v>
       </c>
       <c r="D79" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E79" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F79" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G79" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.01301479339599609</v>
+        <v>0.1006462574005127</v>
       </c>
       <c r="B80" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0002455621395470961</v>
+        <v>0.001397864686118232</v>
       </c>
       <c r="D80" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E80" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F80" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G80" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.0130162239074707</v>
+        <v>0.1024816036224365</v>
       </c>
       <c r="B81" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0002455891303296359</v>
+        <v>0.001423355605867174</v>
       </c>
       <c r="D81" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E81" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F81" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G81" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.01190662384033203</v>
+        <v>0.1016252040863037</v>
       </c>
       <c r="B82" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0002246532800062647</v>
+        <v>0.001411461167865329</v>
       </c>
       <c r="D82" t="n">
-        <v>257</v>
+        <v>672</v>
       </c>
       <c r="E82" t="n">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="F82" t="n">
-        <v>1880</v>
+        <v>2483</v>
       </c>
       <c r="G82" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.01201438903808594</v>
+        <v>0.04296684265136719</v>
       </c>
       <c r="B83" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>0.000226686585624263</v>
+        <v>0.000530454847547743</v>
       </c>
       <c r="D83" t="n">
-        <v>257</v>
+        <v>486</v>
       </c>
       <c r="E83" t="n">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="F83" t="n">
-        <v>1880</v>
+        <v>2628</v>
       </c>
       <c r="G83" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -2947,28 +3029,28 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.01311135292053223</v>
+        <v>0.04647636413574219</v>
       </c>
       <c r="B84" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0002473840173685326</v>
+        <v>0.0005737822732807677</v>
       </c>
       <c r="D84" t="n">
-        <v>257</v>
+        <v>486</v>
       </c>
       <c r="E84" t="n">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="F84" t="n">
-        <v>1880</v>
+        <v>2628</v>
       </c>
       <c r="G84" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -2977,28 +3059,28 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.01300191879272461</v>
+        <v>0.04158449172973633</v>
       </c>
       <c r="B85" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0002453192225042379</v>
+        <v>0.0005133887867868682</v>
       </c>
       <c r="D85" t="n">
-        <v>257</v>
+        <v>486</v>
       </c>
       <c r="E85" t="n">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="F85" t="n">
-        <v>1880</v>
+        <v>2628</v>
       </c>
       <c r="G85" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -3007,28 +3089,28 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.01791667938232422</v>
+        <v>0.04256534576416016</v>
       </c>
       <c r="B86" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0003380505543834758</v>
+        <v>0.0005254980958538291</v>
       </c>
       <c r="D86" t="n">
-        <v>257</v>
+        <v>486</v>
       </c>
       <c r="E86" t="n">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="F86" t="n">
-        <v>1880</v>
+        <v>2628</v>
       </c>
       <c r="G86" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -3037,28 +3119,28 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.01299142837524414</v>
+        <v>0.04440498352050781</v>
       </c>
       <c r="B87" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0002451212900989461</v>
+        <v>0.000548209673092689</v>
       </c>
       <c r="D87" t="n">
-        <v>257</v>
+        <v>486</v>
       </c>
       <c r="E87" t="n">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="F87" t="n">
-        <v>1880</v>
+        <v>2628</v>
       </c>
       <c r="G87" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -3067,28 +3149,28 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.01298165321350098</v>
+        <v>0.04403305053710938</v>
       </c>
       <c r="B88" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0002449368530849241</v>
+        <v>0.0005436179078655479</v>
       </c>
       <c r="D88" t="n">
-        <v>257</v>
+        <v>486</v>
       </c>
       <c r="E88" t="n">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="F88" t="n">
-        <v>1880</v>
+        <v>2628</v>
       </c>
       <c r="G88" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -3097,28 +3179,28 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.01299643516540527</v>
+        <v>0.04232263565063477</v>
       </c>
       <c r="B89" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0002452157578378354</v>
+        <v>0.0005225016746991946</v>
       </c>
       <c r="D89" t="n">
-        <v>257</v>
+        <v>486</v>
       </c>
       <c r="E89" t="n">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="F89" t="n">
-        <v>1880</v>
+        <v>2628</v>
       </c>
       <c r="G89" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -3127,28 +3209,28 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.01299619674682617</v>
+        <v>0.04239439964294434</v>
       </c>
       <c r="B90" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0002452112593740787</v>
+        <v>0.0005233876499128931</v>
       </c>
       <c r="D90" t="n">
-        <v>257</v>
+        <v>486</v>
       </c>
       <c r="E90" t="n">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="F90" t="n">
-        <v>1880</v>
+        <v>2628</v>
       </c>
       <c r="G90" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -3157,33 +3239,5793 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
+        <v>0.04321455955505371</v>
+      </c>
+      <c r="B91" t="n">
+        <v>81</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.000533513080926589</v>
+      </c>
+      <c r="D91" t="n">
+        <v>486</v>
+      </c>
+      <c r="E91" t="n">
+        <v>467</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G91" t="n">
+        <v>17</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.04347681999206543</v>
+      </c>
+      <c r="B92" t="n">
+        <v>81</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.0005367508640995732</v>
+      </c>
+      <c r="D92" t="n">
+        <v>486</v>
+      </c>
+      <c r="E92" t="n">
+        <v>467</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G92" t="n">
+        <v>17</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.04214382171630859</v>
+      </c>
+      <c r="B93" t="n">
+        <v>81</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.0005202940952630691</v>
+      </c>
+      <c r="D93" t="n">
+        <v>486</v>
+      </c>
+      <c r="E93" t="n">
+        <v>467</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G93" t="n">
+        <v>17</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.04207301139831543</v>
+      </c>
+      <c r="B94" t="n">
+        <v>81</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0005194198938063634</v>
+      </c>
+      <c r="D94" t="n">
+        <v>486</v>
+      </c>
+      <c r="E94" t="n">
+        <v>467</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G94" t="n">
+        <v>17</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.04182004928588867</v>
+      </c>
+      <c r="B95" t="n">
+        <v>81</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.0005162969047640577</v>
+      </c>
+      <c r="D95" t="n">
+        <v>486</v>
+      </c>
+      <c r="E95" t="n">
+        <v>467</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G95" t="n">
+        <v>17</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.04299426078796387</v>
+      </c>
+      <c r="B96" t="n">
+        <v>81</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.0005307933430612823</v>
+      </c>
+      <c r="D96" t="n">
+        <v>486</v>
+      </c>
+      <c r="E96" t="n">
+        <v>467</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G96" t="n">
+        <v>17</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.04272031784057617</v>
+      </c>
+      <c r="B97" t="n">
+        <v>81</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.0005274113313651379</v>
+      </c>
+      <c r="D97" t="n">
+        <v>486</v>
+      </c>
+      <c r="E97" t="n">
+        <v>467</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G97" t="n">
+        <v>17</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.04144096374511719</v>
+      </c>
+      <c r="B98" t="n">
+        <v>81</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0005116168363594715</v>
+      </c>
+      <c r="D98" t="n">
+        <v>486</v>
+      </c>
+      <c r="E98" t="n">
+        <v>467</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G98" t="n">
+        <v>17</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.04433989524841309</v>
+      </c>
+      <c r="B99" t="n">
+        <v>81</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0005474061141779393</v>
+      </c>
+      <c r="D99" t="n">
+        <v>486</v>
+      </c>
+      <c r="E99" t="n">
+        <v>467</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G99" t="n">
+        <v>17</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.04126858711242676</v>
+      </c>
+      <c r="B100" t="n">
+        <v>81</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.0005094887297830464</v>
+      </c>
+      <c r="D100" t="n">
+        <v>486</v>
+      </c>
+      <c r="E100" t="n">
+        <v>467</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G100" t="n">
+        <v>17</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.04106712341308594</v>
+      </c>
+      <c r="B101" t="n">
+        <v>81</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.000507001523618345</v>
+      </c>
+      <c r="D101" t="n">
+        <v>486</v>
+      </c>
+      <c r="E101" t="n">
+        <v>467</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G101" t="n">
+        <v>17</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.04266715049743652</v>
+      </c>
+      <c r="B102" t="n">
+        <v>81</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.0005267549444127966</v>
+      </c>
+      <c r="D102" t="n">
+        <v>486</v>
+      </c>
+      <c r="E102" t="n">
+        <v>467</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G102" t="n">
+        <v>17</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.004563808441162109</v>
+      </c>
+      <c r="B103" t="n">
+        <v>20</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0002281904220581055</v>
+      </c>
+      <c r="D103" t="n">
+        <v>108</v>
+      </c>
+      <c r="E103" t="n">
+        <v>88</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G103" t="n">
+        <v>12</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.003988742828369141</v>
+      </c>
+      <c r="B104" t="n">
+        <v>20</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.000199437141418457</v>
+      </c>
+      <c r="D104" t="n">
+        <v>108</v>
+      </c>
+      <c r="E104" t="n">
+        <v>88</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G104" t="n">
+        <v>12</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.005240678787231445</v>
+      </c>
+      <c r="B105" t="n">
+        <v>20</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.0002620339393615723</v>
+      </c>
+      <c r="D105" t="n">
+        <v>108</v>
+      </c>
+      <c r="E105" t="n">
+        <v>88</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G105" t="n">
+        <v>12</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.004519224166870117</v>
+      </c>
+      <c r="B106" t="n">
+        <v>20</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.0002259612083435059</v>
+      </c>
+      <c r="D106" t="n">
+        <v>108</v>
+      </c>
+      <c r="E106" t="n">
+        <v>88</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G106" t="n">
+        <v>12</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.004891395568847656</v>
+      </c>
+      <c r="B107" t="n">
+        <v>20</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.0002445697784423828</v>
+      </c>
+      <c r="D107" t="n">
+        <v>108</v>
+      </c>
+      <c r="E107" t="n">
+        <v>88</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G107" t="n">
+        <v>12</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.004503011703491211</v>
+      </c>
+      <c r="B108" t="n">
+        <v>20</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0002251505851745606</v>
+      </c>
+      <c r="D108" t="n">
+        <v>108</v>
+      </c>
+      <c r="E108" t="n">
+        <v>88</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G108" t="n">
+        <v>12</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.00500035285949707</v>
+      </c>
+      <c r="B109" t="n">
+        <v>20</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.0002500176429748535</v>
+      </c>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="n">
+        <v>88</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G109" t="n">
+        <v>12</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.005297183990478516</v>
+      </c>
+      <c r="B110" t="n">
+        <v>20</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.0002648591995239258</v>
+      </c>
+      <c r="D110" t="n">
+        <v>108</v>
+      </c>
+      <c r="E110" t="n">
+        <v>88</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G110" t="n">
+        <v>12</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.005415439605712891</v>
+      </c>
+      <c r="B111" t="n">
+        <v>20</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0002707719802856445</v>
+      </c>
+      <c r="D111" t="n">
+        <v>108</v>
+      </c>
+      <c r="E111" t="n">
+        <v>88</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G111" t="n">
+        <v>12</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.005558252334594727</v>
+      </c>
+      <c r="B112" t="n">
+        <v>20</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0002779126167297363</v>
+      </c>
+      <c r="D112" t="n">
+        <v>108</v>
+      </c>
+      <c r="E112" t="n">
+        <v>88</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G112" t="n">
+        <v>12</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.006160497665405273</v>
+      </c>
+      <c r="B113" t="n">
+        <v>20</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0003080248832702637</v>
+      </c>
+      <c r="D113" t="n">
+        <v>108</v>
+      </c>
+      <c r="E113" t="n">
+        <v>88</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G113" t="n">
+        <v>12</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.005517482757568359</v>
+      </c>
+      <c r="B114" t="n">
+        <v>20</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0002758741378784179</v>
+      </c>
+      <c r="D114" t="n">
+        <v>108</v>
+      </c>
+      <c r="E114" t="n">
+        <v>88</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G114" t="n">
+        <v>12</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.005002021789550781</v>
+      </c>
+      <c r="B115" t="n">
+        <v>20</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.0002501010894775391</v>
+      </c>
+      <c r="D115" t="n">
+        <v>108</v>
+      </c>
+      <c r="E115" t="n">
+        <v>88</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G115" t="n">
+        <v>12</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.004397392272949219</v>
+      </c>
+      <c r="B116" t="n">
+        <v>20</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.0002198696136474609</v>
+      </c>
+      <c r="D116" t="n">
+        <v>108</v>
+      </c>
+      <c r="E116" t="n">
+        <v>88</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G116" t="n">
+        <v>12</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.005002737045288086</v>
+      </c>
+      <c r="B117" t="n">
+        <v>20</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0002501368522644043</v>
+      </c>
+      <c r="D117" t="n">
+        <v>108</v>
+      </c>
+      <c r="E117" t="n">
+        <v>88</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G117" t="n">
+        <v>12</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.004041194915771484</v>
+      </c>
+      <c r="B118" t="n">
+        <v>20</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.0002020597457885742</v>
+      </c>
+      <c r="D118" t="n">
+        <v>108</v>
+      </c>
+      <c r="E118" t="n">
+        <v>88</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G118" t="n">
+        <v>12</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.003998756408691406</v>
+      </c>
+      <c r="B119" t="n">
+        <v>20</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.0001999378204345703</v>
+      </c>
+      <c r="D119" t="n">
+        <v>108</v>
+      </c>
+      <c r="E119" t="n">
+        <v>88</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G119" t="n">
+        <v>12</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.004002809524536133</v>
+      </c>
+      <c r="B120" t="n">
+        <v>20</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0002001404762268067</v>
+      </c>
+      <c r="D120" t="n">
+        <v>108</v>
+      </c>
+      <c r="E120" t="n">
+        <v>88</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G120" t="n">
+        <v>12</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.005498409271240234</v>
+      </c>
+      <c r="B121" t="n">
+        <v>20</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.0002749204635620117</v>
+      </c>
+      <c r="D121" t="n">
+        <v>108</v>
+      </c>
+      <c r="E121" t="n">
+        <v>88</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G121" t="n">
+        <v>12</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.004558086395263672</v>
+      </c>
+      <c r="B122" t="n">
+        <v>20</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.0002279043197631836</v>
+      </c>
+      <c r="D122" t="n">
+        <v>108</v>
+      </c>
+      <c r="E122" t="n">
+        <v>88</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G122" t="n">
+        <v>12</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.1250045299530029</v>
+      </c>
+      <c r="B123" t="n">
+        <v>67</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.001865739253029895</v>
+      </c>
+      <c r="D123" t="n">
+        <v>641</v>
+      </c>
+      <c r="E123" t="n">
+        <v>639</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G123" t="n">
+        <v>21</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.1219403743743896</v>
+      </c>
+      <c r="B124" t="n">
+        <v>67</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.001820005587677457</v>
+      </c>
+      <c r="D124" t="n">
+        <v>641</v>
+      </c>
+      <c r="E124" t="n">
+        <v>639</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G124" t="n">
+        <v>21</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.1207621097564697</v>
+      </c>
+      <c r="B125" t="n">
+        <v>67</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.001802419548604026</v>
+      </c>
+      <c r="D125" t="n">
+        <v>641</v>
+      </c>
+      <c r="E125" t="n">
+        <v>639</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G125" t="n">
+        <v>21</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.1234650611877441</v>
+      </c>
+      <c r="B126" t="n">
+        <v>67</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.001842762107279763</v>
+      </c>
+      <c r="D126" t="n">
+        <v>641</v>
+      </c>
+      <c r="E126" t="n">
+        <v>639</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G126" t="n">
+        <v>21</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.1284692287445068</v>
+      </c>
+      <c r="B127" t="n">
+        <v>67</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.001917451175291147</v>
+      </c>
+      <c r="D127" t="n">
+        <v>641</v>
+      </c>
+      <c r="E127" t="n">
+        <v>639</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G127" t="n">
+        <v>21</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.1238641738891602</v>
+      </c>
+      <c r="B128" t="n">
+        <v>67</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.001848719013271047</v>
+      </c>
+      <c r="D128" t="n">
+        <v>641</v>
+      </c>
+      <c r="E128" t="n">
+        <v>639</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G128" t="n">
+        <v>21</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.1273832321166992</v>
+      </c>
+      <c r="B129" t="n">
+        <v>67</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.001901242270398496</v>
+      </c>
+      <c r="D129" t="n">
+        <v>641</v>
+      </c>
+      <c r="E129" t="n">
+        <v>639</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G129" t="n">
+        <v>21</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.1246058940887451</v>
+      </c>
+      <c r="B130" t="n">
+        <v>67</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.001859789464011121</v>
+      </c>
+      <c r="D130" t="n">
+        <v>641</v>
+      </c>
+      <c r="E130" t="n">
+        <v>639</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G130" t="n">
+        <v>21</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.1236860752105713</v>
+      </c>
+      <c r="B131" t="n">
+        <v>67</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.001846060824038378</v>
+      </c>
+      <c r="D131" t="n">
+        <v>641</v>
+      </c>
+      <c r="E131" t="n">
+        <v>639</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G131" t="n">
+        <v>21</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.1272051334381104</v>
+      </c>
+      <c r="B132" t="n">
+        <v>67</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.001898584081165826</v>
+      </c>
+      <c r="D132" t="n">
+        <v>641</v>
+      </c>
+      <c r="E132" t="n">
+        <v>639</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G132" t="n">
+        <v>21</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.1712455749511719</v>
+      </c>
+      <c r="B133" t="n">
+        <v>67</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.002555904103748834</v>
+      </c>
+      <c r="D133" t="n">
+        <v>641</v>
+      </c>
+      <c r="E133" t="n">
+        <v>639</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G133" t="n">
+        <v>21</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.1246030330657959</v>
+      </c>
+      <c r="B134" t="n">
+        <v>67</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.001859746762176058</v>
+      </c>
+      <c r="D134" t="n">
+        <v>641</v>
+      </c>
+      <c r="E134" t="n">
+        <v>639</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G134" t="n">
+        <v>21</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.1258533000946045</v>
+      </c>
+      <c r="B135" t="n">
+        <v>67</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.001878407464098575</v>
+      </c>
+      <c r="D135" t="n">
+        <v>641</v>
+      </c>
+      <c r="E135" t="n">
+        <v>639</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G135" t="n">
+        <v>21</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.1234898567199707</v>
+      </c>
+      <c r="B136" t="n">
+        <v>67</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.001843132189850309</v>
+      </c>
+      <c r="D136" t="n">
+        <v>641</v>
+      </c>
+      <c r="E136" t="n">
+        <v>639</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G136" t="n">
+        <v>21</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.1222796440124512</v>
+      </c>
+      <c r="B137" t="n">
+        <v>67</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.001825069313618674</v>
+      </c>
+      <c r="D137" t="n">
+        <v>641</v>
+      </c>
+      <c r="E137" t="n">
+        <v>639</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G137" t="n">
+        <v>21</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.1267762184143066</v>
+      </c>
+      <c r="B138" t="n">
+        <v>67</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.001892182364392636</v>
+      </c>
+      <c r="D138" t="n">
+        <v>641</v>
+      </c>
+      <c r="E138" t="n">
+        <v>639</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G138" t="n">
+        <v>21</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.1211073398590088</v>
+      </c>
+      <c r="B139" t="n">
+        <v>67</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.001807572236701624</v>
+      </c>
+      <c r="D139" t="n">
+        <v>641</v>
+      </c>
+      <c r="E139" t="n">
+        <v>639</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G139" t="n">
+        <v>21</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.121687650680542</v>
+      </c>
+      <c r="B140" t="n">
+        <v>67</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.001816233592246895</v>
+      </c>
+      <c r="D140" t="n">
+        <v>641</v>
+      </c>
+      <c r="E140" t="n">
+        <v>639</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G140" t="n">
+        <v>21</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.1249122619628906</v>
+      </c>
+      <c r="B141" t="n">
+        <v>67</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.001864362118849114</v>
+      </c>
+      <c r="D141" t="n">
+        <v>641</v>
+      </c>
+      <c r="E141" t="n">
+        <v>639</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G141" t="n">
+        <v>21</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.1274030208587646</v>
+      </c>
+      <c r="B142" t="n">
+        <v>67</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.001901537624757681</v>
+      </c>
+      <c r="D142" t="n">
+        <v>641</v>
+      </c>
+      <c r="E142" t="n">
+        <v>639</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G142" t="n">
+        <v>21</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.06537199020385742</v>
+      </c>
+      <c r="B143" t="n">
+        <v>43</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.001520278841950173</v>
+      </c>
+      <c r="D143" t="n">
+        <v>448</v>
+      </c>
+      <c r="E143" t="n">
+        <v>441</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G143" t="n">
+        <v>19</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.07101964950561523</v>
+      </c>
+      <c r="B144" t="n">
+        <v>43</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.00165161975594454</v>
+      </c>
+      <c r="D144" t="n">
+        <v>448</v>
+      </c>
+      <c r="E144" t="n">
+        <v>441</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G144" t="n">
+        <v>19</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.06437325477600098</v>
+      </c>
+      <c r="B145" t="n">
+        <v>43</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.001497052436651185</v>
+      </c>
+      <c r="D145" t="n">
+        <v>448</v>
+      </c>
+      <c r="E145" t="n">
+        <v>441</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G145" t="n">
+        <v>19</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.0670771598815918</v>
+      </c>
+      <c r="B146" t="n">
+        <v>43</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.001559933950734693</v>
+      </c>
+      <c r="D146" t="n">
+        <v>448</v>
+      </c>
+      <c r="E146" t="n">
+        <v>441</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G146" t="n">
+        <v>19</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.06612706184387207</v>
+      </c>
+      <c r="B147" t="n">
+        <v>43</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.001537838647531909</v>
+      </c>
+      <c r="D147" t="n">
+        <v>448</v>
+      </c>
+      <c r="E147" t="n">
+        <v>441</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G147" t="n">
+        <v>19</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.06638193130493164</v>
+      </c>
+      <c r="B148" t="n">
+        <v>43</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.001543765844300736</v>
+      </c>
+      <c r="D148" t="n">
+        <v>448</v>
+      </c>
+      <c r="E148" t="n">
+        <v>441</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G148" t="n">
+        <v>19</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.06608986854553223</v>
+      </c>
+      <c r="B149" t="n">
+        <v>43</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.001536973687105401</v>
+      </c>
+      <c r="D149" t="n">
+        <v>448</v>
+      </c>
+      <c r="E149" t="n">
+        <v>441</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G149" t="n">
+        <v>19</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.06407690048217773</v>
+      </c>
+      <c r="B150" t="n">
+        <v>43</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.001490160476329715</v>
+      </c>
+      <c r="D150" t="n">
+        <v>448</v>
+      </c>
+      <c r="E150" t="n">
+        <v>441</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G150" t="n">
+        <v>19</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.06686305999755859</v>
+      </c>
+      <c r="B151" t="n">
+        <v>43</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.001554954883664153</v>
+      </c>
+      <c r="D151" t="n">
+        <v>448</v>
+      </c>
+      <c r="E151" t="n">
+        <v>441</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G151" t="n">
+        <v>19</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.06824016571044922</v>
+      </c>
+      <c r="B152" t="n">
+        <v>43</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.001586980597917424</v>
+      </c>
+      <c r="D152" t="n">
+        <v>448</v>
+      </c>
+      <c r="E152" t="n">
+        <v>441</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G152" t="n">
+        <v>19</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.06796622276306152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>43</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.001580609831699105</v>
+      </c>
+      <c r="D153" t="n">
+        <v>448</v>
+      </c>
+      <c r="E153" t="n">
+        <v>441</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G153" t="n">
+        <v>19</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.06723451614379883</v>
+      </c>
+      <c r="B154" t="n">
+        <v>43</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.001563593398692996</v>
+      </c>
+      <c r="D154" t="n">
+        <v>448</v>
+      </c>
+      <c r="E154" t="n">
+        <v>441</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G154" t="n">
+        <v>19</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.06559205055236816</v>
+      </c>
+      <c r="B155" t="n">
+        <v>43</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.001525396524473678</v>
+      </c>
+      <c r="D155" t="n">
+        <v>448</v>
+      </c>
+      <c r="E155" t="n">
+        <v>441</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G155" t="n">
+        <v>19</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.06631875038146973</v>
+      </c>
+      <c r="B156" t="n">
+        <v>43</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.001542296520499296</v>
+      </c>
+      <c r="D156" t="n">
+        <v>448</v>
+      </c>
+      <c r="E156" t="n">
+        <v>441</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G156" t="n">
+        <v>19</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.06655216217041016</v>
+      </c>
+      <c r="B157" t="n">
+        <v>43</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.001547724701637446</v>
+      </c>
+      <c r="D157" t="n">
+        <v>448</v>
+      </c>
+      <c r="E157" t="n">
+        <v>441</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G157" t="n">
+        <v>19</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.06691455841064453</v>
+      </c>
+      <c r="B158" t="n">
+        <v>43</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.00155615252117778</v>
+      </c>
+      <c r="D158" t="n">
+        <v>448</v>
+      </c>
+      <c r="E158" t="n">
+        <v>441</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G158" t="n">
+        <v>19</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.07100152969360352</v>
+      </c>
+      <c r="B159" t="n">
+        <v>43</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.001651198364967524</v>
+      </c>
+      <c r="D159" t="n">
+        <v>448</v>
+      </c>
+      <c r="E159" t="n">
+        <v>441</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G159" t="n">
+        <v>19</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.06577658653259277</v>
+      </c>
+      <c r="B160" t="n">
+        <v>43</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.001529688058897506</v>
+      </c>
+      <c r="D160" t="n">
+        <v>448</v>
+      </c>
+      <c r="E160" t="n">
+        <v>441</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G160" t="n">
+        <v>19</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.06576037406921387</v>
+      </c>
+      <c r="B161" t="n">
+        <v>43</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.001529311024865439</v>
+      </c>
+      <c r="D161" t="n">
+        <v>448</v>
+      </c>
+      <c r="E161" t="n">
+        <v>441</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G161" t="n">
+        <v>19</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.06652188301086426</v>
+      </c>
+      <c r="B162" t="n">
+        <v>43</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.001547020535136378</v>
+      </c>
+      <c r="D162" t="n">
+        <v>448</v>
+      </c>
+      <c r="E162" t="n">
+        <v>441</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2482</v>
+      </c>
+      <c r="G162" t="n">
+        <v>19</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.02005243301391602</v>
+      </c>
+      <c r="B163" t="n">
+        <v>37</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.0005419576490247571</v>
+      </c>
+      <c r="D163" t="n">
+        <v>262</v>
+      </c>
+      <c r="E163" t="n">
+        <v>227</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G163" t="n">
+        <v>17</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.02107906341552734</v>
+      </c>
+      <c r="B164" t="n">
+        <v>37</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.0005697044166358741</v>
+      </c>
+      <c r="D164" t="n">
+        <v>262</v>
+      </c>
+      <c r="E164" t="n">
+        <v>227</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G164" t="n">
+        <v>17</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.02105426788330078</v>
+      </c>
+      <c r="B165" t="n">
+        <v>37</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.0005690342671162373</v>
+      </c>
+      <c r="D165" t="n">
+        <v>262</v>
+      </c>
+      <c r="E165" t="n">
+        <v>227</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G165" t="n">
+        <v>17</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.01976156234741211</v>
+      </c>
+      <c r="B166" t="n">
+        <v>37</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.0005340962796597867</v>
+      </c>
+      <c r="D166" t="n">
+        <v>262</v>
+      </c>
+      <c r="E166" t="n">
+        <v>227</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G166" t="n">
+        <v>17</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.0229346752166748</v>
+      </c>
+      <c r="B167" t="n">
+        <v>37</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.0006198560869371569</v>
+      </c>
+      <c r="D167" t="n">
+        <v>262</v>
+      </c>
+      <c r="E167" t="n">
+        <v>227</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G167" t="n">
+        <v>17</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.02084851264953613</v>
+      </c>
+      <c r="B168" t="n">
+        <v>37</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.0005634733148523279</v>
+      </c>
+      <c r="D168" t="n">
+        <v>262</v>
+      </c>
+      <c r="E168" t="n">
+        <v>227</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G168" t="n">
+        <v>17</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.02092576026916504</v>
+      </c>
+      <c r="B169" t="n">
+        <v>37</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.0005655610883558118</v>
+      </c>
+      <c r="D169" t="n">
+        <v>262</v>
+      </c>
+      <c r="E169" t="n">
+        <v>227</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G169" t="n">
+        <v>17</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.01991558074951172</v>
+      </c>
+      <c r="B170" t="n">
+        <v>37</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.0005382589391759924</v>
+      </c>
+      <c r="D170" t="n">
+        <v>262</v>
+      </c>
+      <c r="E170" t="n">
+        <v>227</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G170" t="n">
+        <v>17</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.02110886573791504</v>
+      </c>
+      <c r="B171" t="n">
+        <v>37</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.0005705098848085146</v>
+      </c>
+      <c r="D171" t="n">
+        <v>262</v>
+      </c>
+      <c r="E171" t="n">
+        <v>227</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G171" t="n">
+        <v>17</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.02003645896911621</v>
+      </c>
+      <c r="B172" t="n">
+        <v>37</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.0005415259180842219</v>
+      </c>
+      <c r="D172" t="n">
+        <v>262</v>
+      </c>
+      <c r="E172" t="n">
+        <v>227</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G172" t="n">
+        <v>17</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.02129817008972168</v>
+      </c>
+      <c r="B173" t="n">
+        <v>37</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.0005756262186411265</v>
+      </c>
+      <c r="D173" t="n">
+        <v>262</v>
+      </c>
+      <c r="E173" t="n">
+        <v>227</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G173" t="n">
+        <v>17</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.02005720138549805</v>
+      </c>
+      <c r="B174" t="n">
+        <v>37</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.0005420865239323797</v>
+      </c>
+      <c r="D174" t="n">
+        <v>262</v>
+      </c>
+      <c r="E174" t="n">
+        <v>227</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G174" t="n">
+        <v>17</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.02102780342102051</v>
+      </c>
+      <c r="B175" t="n">
+        <v>37</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.0005683190113789326</v>
+      </c>
+      <c r="D175" t="n">
+        <v>262</v>
+      </c>
+      <c r="E175" t="n">
+        <v>227</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G175" t="n">
+        <v>17</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.01903486251831055</v>
+      </c>
+      <c r="B176" t="n">
+        <v>37</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.0005144557437381229</v>
+      </c>
+      <c r="D176" t="n">
+        <v>262</v>
+      </c>
+      <c r="E176" t="n">
+        <v>227</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G176" t="n">
+        <v>17</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.02009892463684082</v>
+      </c>
+      <c r="B177" t="n">
+        <v>37</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.0005432141793740762</v>
+      </c>
+      <c r="D177" t="n">
+        <v>262</v>
+      </c>
+      <c r="E177" t="n">
+        <v>227</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G177" t="n">
+        <v>17</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.02206134796142578</v>
+      </c>
+      <c r="B178" t="n">
+        <v>37</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.0005962526476061022</v>
+      </c>
+      <c r="D178" t="n">
+        <v>262</v>
+      </c>
+      <c r="E178" t="n">
+        <v>227</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G178" t="n">
+        <v>17</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.02115488052368164</v>
+      </c>
+      <c r="B179" t="n">
+        <v>37</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.0005717535276670713</v>
+      </c>
+      <c r="D179" t="n">
+        <v>262</v>
+      </c>
+      <c r="E179" t="n">
+        <v>227</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G179" t="n">
+        <v>17</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.02093839645385742</v>
+      </c>
+      <c r="B180" t="n">
+        <v>37</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.0005659026068610114</v>
+      </c>
+      <c r="D180" t="n">
+        <v>262</v>
+      </c>
+      <c r="E180" t="n">
+        <v>227</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G180" t="n">
+        <v>17</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.02158188819885254</v>
+      </c>
+      <c r="B181" t="n">
+        <v>37</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.0005832942756446632</v>
+      </c>
+      <c r="D181" t="n">
+        <v>262</v>
+      </c>
+      <c r="E181" t="n">
+        <v>227</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G181" t="n">
+        <v>17</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.02006793022155762</v>
+      </c>
+      <c r="B182" t="n">
+        <v>37</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.0005423764924745302</v>
+      </c>
+      <c r="D182" t="n">
+        <v>262</v>
+      </c>
+      <c r="E182" t="n">
+        <v>227</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2704</v>
+      </c>
+      <c r="G182" t="n">
+        <v>17</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.006518363952636719</v>
+      </c>
+      <c r="B183" t="n">
+        <v>17</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.0003834331736845129</v>
+      </c>
+      <c r="D183" t="n">
+        <v>90</v>
+      </c>
+      <c r="E183" t="n">
+        <v>73</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G183" t="n">
+        <v>12</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.003723621368408203</v>
+      </c>
+      <c r="B184" t="n">
+        <v>17</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.0002190365510828355</v>
+      </c>
+      <c r="D184" t="n">
+        <v>90</v>
+      </c>
+      <c r="E184" t="n">
+        <v>73</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G184" t="n">
+        <v>12</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.004000186920166016</v>
+      </c>
+      <c r="B185" t="n">
+        <v>17</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.0002353051129509421</v>
+      </c>
+      <c r="D185" t="n">
+        <v>90</v>
+      </c>
+      <c r="E185" t="n">
+        <v>73</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G185" t="n">
+        <v>12</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.003995418548583984</v>
+      </c>
+      <c r="B186" t="n">
+        <v>17</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.0002350246205049403</v>
+      </c>
+      <c r="D186" t="n">
+        <v>90</v>
+      </c>
+      <c r="E186" t="n">
+        <v>73</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G186" t="n">
+        <v>12</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.004999160766601562</v>
+      </c>
+      <c r="B187" t="n">
+        <v>17</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.0002940682803883272</v>
+      </c>
+      <c r="D187" t="n">
+        <v>90</v>
+      </c>
+      <c r="E187" t="n">
+        <v>73</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G187" t="n">
+        <v>12</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.003542184829711914</v>
+      </c>
+      <c r="B188" t="n">
+        <v>17</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.0002083638135124655</v>
+      </c>
+      <c r="D188" t="n">
+        <v>90</v>
+      </c>
+      <c r="E188" t="n">
+        <v>73</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G188" t="n">
+        <v>12</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.005511283874511719</v>
+      </c>
+      <c r="B189" t="n">
+        <v>17</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.0003241931690889246</v>
+      </c>
+      <c r="D189" t="n">
+        <v>90</v>
+      </c>
+      <c r="E189" t="n">
+        <v>73</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G189" t="n">
+        <v>12</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.004506349563598633</v>
+      </c>
+      <c r="B190" t="n">
+        <v>17</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.0002650793860940372</v>
+      </c>
+      <c r="D190" t="n">
+        <v>90</v>
+      </c>
+      <c r="E190" t="n">
+        <v>73</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G190" t="n">
+        <v>12</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.003999471664428711</v>
+      </c>
+      <c r="B191" t="n">
+        <v>17</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.0002352630390840418</v>
+      </c>
+      <c r="D191" t="n">
+        <v>90</v>
+      </c>
+      <c r="E191" t="n">
+        <v>73</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G191" t="n">
+        <v>12</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.004004478454589844</v>
+      </c>
+      <c r="B192" t="n">
+        <v>17</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.0002355575561523438</v>
+      </c>
+      <c r="D192" t="n">
+        <v>90</v>
+      </c>
+      <c r="E192" t="n">
+        <v>73</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G192" t="n">
+        <v>12</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.004018545150756836</v>
+      </c>
+      <c r="B193" t="n">
+        <v>17</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.0002363850088680492</v>
+      </c>
+      <c r="D193" t="n">
+        <v>90</v>
+      </c>
+      <c r="E193" t="n">
+        <v>73</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G193" t="n">
+        <v>12</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.004008293151855469</v>
+      </c>
+      <c r="B194" t="n">
+        <v>17</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.0002357819501091452</v>
+      </c>
+      <c r="D194" t="n">
+        <v>90</v>
+      </c>
+      <c r="E194" t="n">
+        <v>73</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G194" t="n">
+        <v>12</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.003998994827270508</v>
+      </c>
+      <c r="B195" t="n">
+        <v>17</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.0002352349898394416</v>
+      </c>
+      <c r="D195" t="n">
+        <v>90</v>
+      </c>
+      <c r="E195" t="n">
+        <v>73</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G195" t="n">
+        <v>12</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.004195451736450195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>17</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.0002467912786147173</v>
+      </c>
+      <c r="D196" t="n">
+        <v>90</v>
+      </c>
+      <c r="E196" t="n">
+        <v>73</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G196" t="n">
+        <v>12</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.003952741622924805</v>
+      </c>
+      <c r="B197" t="n">
+        <v>17</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.0002325142131132238</v>
+      </c>
+      <c r="D197" t="n">
+        <v>90</v>
+      </c>
+      <c r="E197" t="n">
+        <v>73</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G197" t="n">
+        <v>12</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.004525661468505859</v>
+      </c>
+      <c r="B198" t="n">
+        <v>17</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.0002662153805003446</v>
+      </c>
+      <c r="D198" t="n">
+        <v>90</v>
+      </c>
+      <c r="E198" t="n">
+        <v>73</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G198" t="n">
+        <v>12</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.00350499153137207</v>
+      </c>
+      <c r="B199" t="n">
+        <v>17</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.0002061759724336512</v>
+      </c>
+      <c r="D199" t="n">
+        <v>90</v>
+      </c>
+      <c r="E199" t="n">
+        <v>73</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G199" t="n">
+        <v>12</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.003591060638427734</v>
+      </c>
+      <c r="B200" t="n">
+        <v>17</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.0002112388610839844</v>
+      </c>
+      <c r="D200" t="n">
+        <v>90</v>
+      </c>
+      <c r="E200" t="n">
+        <v>73</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G200" t="n">
+        <v>12</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.004514217376708984</v>
+      </c>
+      <c r="B201" t="n">
+        <v>17</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.0002655421986299403</v>
+      </c>
+      <c r="D201" t="n">
+        <v>90</v>
+      </c>
+      <c r="E201" t="n">
+        <v>73</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G201" t="n">
+        <v>12</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.003570318222045898</v>
+      </c>
+      <c r="B202" t="n">
+        <v>17</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.0002100187189438764</v>
+      </c>
+      <c r="D202" t="n">
+        <v>90</v>
+      </c>
+      <c r="E202" t="n">
+        <v>73</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G202" t="n">
+        <v>12</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.1506462097167969</v>
+      </c>
+      <c r="B203" t="n">
+        <v>400</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.0003766155242919922</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G203" t="n">
+        <v>21</v>
+      </c>
+      <c r="H203" t="n">
+        <v>5</v>
+      </c>
+      <c r="I203" t="n">
+        <v>30</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.1492605209350586</v>
+      </c>
+      <c r="B204" t="n">
+        <v>400</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.0003731513023376465</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G204" t="n">
+        <v>21</v>
+      </c>
+      <c r="H204" t="n">
+        <v>5</v>
+      </c>
+      <c r="I204" t="n">
+        <v>30</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.1510064601898193</v>
+      </c>
+      <c r="B205" t="n">
+        <v>400</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.0003775161504745483</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G205" t="n">
+        <v>21</v>
+      </c>
+      <c r="H205" t="n">
+        <v>5</v>
+      </c>
+      <c r="I205" t="n">
+        <v>30</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.1470344066619873</v>
+      </c>
+      <c r="B206" t="n">
+        <v>400</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.0003675860166549682</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G206" t="n">
+        <v>21</v>
+      </c>
+      <c r="H206" t="n">
+        <v>5</v>
+      </c>
+      <c r="I206" t="n">
+        <v>30</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.1494071483612061</v>
+      </c>
+      <c r="B207" t="n">
+        <v>400</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.0003735178709030151</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G207" t="n">
+        <v>21</v>
+      </c>
+      <c r="H207" t="n">
+        <v>5</v>
+      </c>
+      <c r="I207" t="n">
+        <v>30</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.1596353054046631</v>
+      </c>
+      <c r="B208" t="n">
+        <v>400</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.0003990882635116577</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G208" t="n">
+        <v>21</v>
+      </c>
+      <c r="H208" t="n">
+        <v>5</v>
+      </c>
+      <c r="I208" t="n">
+        <v>30</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.158043384552002</v>
+      </c>
+      <c r="B209" t="n">
+        <v>400</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.0003951084613800049</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G209" t="n">
+        <v>21</v>
+      </c>
+      <c r="H209" t="n">
+        <v>5</v>
+      </c>
+      <c r="I209" t="n">
+        <v>30</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.1581015586853027</v>
+      </c>
+      <c r="B210" t="n">
+        <v>400</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.0003952538967132568</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G210" t="n">
+        <v>21</v>
+      </c>
+      <c r="H210" t="n">
+        <v>5</v>
+      </c>
+      <c r="I210" t="n">
+        <v>30</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.19390869140625</v>
+      </c>
+      <c r="B211" t="n">
+        <v>400</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.000484771728515625</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G211" t="n">
+        <v>21</v>
+      </c>
+      <c r="H211" t="n">
+        <v>5</v>
+      </c>
+      <c r="I211" t="n">
+        <v>30</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.1459987163543701</v>
+      </c>
+      <c r="B212" t="n">
+        <v>400</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.0003649967908859253</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G212" t="n">
+        <v>21</v>
+      </c>
+      <c r="H212" t="n">
+        <v>5</v>
+      </c>
+      <c r="I212" t="n">
+        <v>30</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.1499552726745605</v>
+      </c>
+      <c r="B213" t="n">
+        <v>400</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.0003748881816864014</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G213" t="n">
+        <v>21</v>
+      </c>
+      <c r="H213" t="n">
+        <v>5</v>
+      </c>
+      <c r="I213" t="n">
+        <v>30</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.1589932441711426</v>
+      </c>
+      <c r="B214" t="n">
+        <v>400</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.0003974831104278564</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G214" t="n">
+        <v>21</v>
+      </c>
+      <c r="H214" t="n">
+        <v>5</v>
+      </c>
+      <c r="I214" t="n">
+        <v>30</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.160797119140625</v>
+      </c>
+      <c r="B215" t="n">
+        <v>400</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.0004019927978515625</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G215" t="n">
+        <v>21</v>
+      </c>
+      <c r="H215" t="n">
+        <v>5</v>
+      </c>
+      <c r="I215" t="n">
+        <v>30</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.1490192413330078</v>
+      </c>
+      <c r="B216" t="n">
+        <v>400</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.0003725481033325195</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G216" t="n">
+        <v>21</v>
+      </c>
+      <c r="H216" t="n">
+        <v>5</v>
+      </c>
+      <c r="I216" t="n">
+        <v>30</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.1570010185241699</v>
+      </c>
+      <c r="B217" t="n">
+        <v>400</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.0003925025463104248</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G217" t="n">
+        <v>21</v>
+      </c>
+      <c r="H217" t="n">
+        <v>5</v>
+      </c>
+      <c r="I217" t="n">
+        <v>30</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.1510045528411865</v>
+      </c>
+      <c r="B218" t="n">
+        <v>400</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.0003775113821029663</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G218" t="n">
+        <v>21</v>
+      </c>
+      <c r="H218" t="n">
+        <v>5</v>
+      </c>
+      <c r="I218" t="n">
+        <v>30</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.1649703979492188</v>
+      </c>
+      <c r="B219" t="n">
+        <v>400</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.0004124259948730469</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G219" t="n">
+        <v>21</v>
+      </c>
+      <c r="H219" t="n">
+        <v>5</v>
+      </c>
+      <c r="I219" t="n">
+        <v>30</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.1634016036987305</v>
+      </c>
+      <c r="B220" t="n">
+        <v>400</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.0004085040092468262</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G220" t="n">
+        <v>21</v>
+      </c>
+      <c r="H220" t="n">
+        <v>5</v>
+      </c>
+      <c r="I220" t="n">
+        <v>30</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.1570010185241699</v>
+      </c>
+      <c r="B221" t="n">
+        <v>400</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.0003925025463104248</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G221" t="n">
+        <v>21</v>
+      </c>
+      <c r="H221" t="n">
+        <v>5</v>
+      </c>
+      <c r="I221" t="n">
+        <v>30</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.1925241947174072</v>
+      </c>
+      <c r="B222" t="n">
+        <v>400</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.0004813104867935181</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1857</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1535</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G222" t="n">
+        <v>21</v>
+      </c>
+      <c r="H222" t="n">
+        <v>5</v>
+      </c>
+      <c r="I222" t="n">
+        <v>30</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.2192897796630859</v>
+      </c>
+      <c r="B223" t="n">
+        <v>167</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.001313112453072371</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G223" t="n">
+        <v>19</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>19</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.2331240177154541</v>
+      </c>
+      <c r="B224" t="n">
+        <v>167</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.001395952201888947</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G224" t="n">
+        <v>19</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>19</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.2303905487060547</v>
+      </c>
+      <c r="B225" t="n">
+        <v>167</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.001379584123988351</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G225" t="n">
+        <v>19</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>19</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.2198679447174072</v>
+      </c>
+      <c r="B226" t="n">
+        <v>167</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.001316574519265912</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G226" t="n">
+        <v>19</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>19</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.2410037517547607</v>
+      </c>
+      <c r="B227" t="n">
+        <v>167</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.00144313623805246</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G227" t="n">
+        <v>19</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>19</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.2331774234771729</v>
+      </c>
+      <c r="B228" t="n">
+        <v>167</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.001396271996869298</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G228" t="n">
+        <v>19</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>19</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.2189977169036865</v>
+      </c>
+      <c r="B229" t="n">
+        <v>167</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.001311363574273572</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G229" t="n">
+        <v>19</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>19</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.2546415328979492</v>
+      </c>
+      <c r="B230" t="n">
+        <v>167</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.001524799598191313</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F230" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G230" t="n">
+        <v>19</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>19</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.220980167388916</v>
+      </c>
+      <c r="B231" t="n">
+        <v>167</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.00132323453526297</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G231" t="n">
+        <v>19</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>19</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.2204129695892334</v>
+      </c>
+      <c r="B232" t="n">
+        <v>167</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.001319838141252895</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F232" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G232" t="n">
+        <v>19</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>19</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.2174787521362305</v>
+      </c>
+      <c r="B233" t="n">
+        <v>167</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.001302267976863655</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G233" t="n">
+        <v>19</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>19</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.2176244258880615</v>
+      </c>
+      <c r="B234" t="n">
+        <v>167</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.001303140274778812</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G234" t="n">
+        <v>19</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>19</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.2170183658599854</v>
+      </c>
+      <c r="B235" t="n">
+        <v>167</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.001299511172814283</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G235" t="n">
+        <v>19</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>19</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.2200007438659668</v>
+      </c>
+      <c r="B236" t="n">
+        <v>167</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.001317369723748304</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G236" t="n">
+        <v>19</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>19</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.2219970226287842</v>
+      </c>
+      <c r="B237" t="n">
+        <v>167</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.001329323488795115</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G237" t="n">
+        <v>19</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>19</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.2129433155059814</v>
+      </c>
+      <c r="B238" t="n">
+        <v>167</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.001275109673688512</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G238" t="n">
+        <v>19</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>19</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.2092311382293701</v>
+      </c>
+      <c r="B239" t="n">
+        <v>167</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.001252881067241737</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G239" t="n">
+        <v>19</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>19</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.2148845195770264</v>
+      </c>
+      <c r="B240" t="n">
+        <v>167</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.001286733650161835</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G240" t="n">
+        <v>19</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>19</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.2110462188720703</v>
+      </c>
+      <c r="B241" t="n">
+        <v>167</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.001263749813605211</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G241" t="n">
+        <v>19</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>19</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.2170064449310303</v>
+      </c>
+      <c r="B242" t="n">
+        <v>167</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.001299439790006169</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1338</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G242" t="n">
+        <v>19</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>19</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.5262157917022705</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.0004323876677915123</v>
+      </c>
+      <c r="D243" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E243" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G243" t="n">
+        <v>17</v>
+      </c>
+      <c r="H243" t="n">
+        <v>31</v>
+      </c>
+      <c r="I243" t="n">
+        <v>123</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.5540316104888916</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.0004552437226695905</v>
+      </c>
+      <c r="D244" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E244" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G244" t="n">
+        <v>17</v>
+      </c>
+      <c r="H244" t="n">
+        <v>31</v>
+      </c>
+      <c r="I244" t="n">
+        <v>123</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.5613112449645996</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.0004612253450818403</v>
+      </c>
+      <c r="D245" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E245" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F245" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G245" t="n">
+        <v>17</v>
+      </c>
+      <c r="H245" t="n">
+        <v>31</v>
+      </c>
+      <c r="I245" t="n">
+        <v>123</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.52716064453125</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.0004331640464513147</v>
+      </c>
+      <c r="D246" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E246" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G246" t="n">
+        <v>17</v>
+      </c>
+      <c r="H246" t="n">
+        <v>31</v>
+      </c>
+      <c r="I246" t="n">
+        <v>123</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.5305519104003906</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.0004359506248154401</v>
+      </c>
+      <c r="D247" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E247" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G247" t="n">
+        <v>17</v>
+      </c>
+      <c r="H247" t="n">
+        <v>31</v>
+      </c>
+      <c r="I247" t="n">
+        <v>123</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.5363717079162598</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.0004407327098736728</v>
+      </c>
+      <c r="D248" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E248" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G248" t="n">
+        <v>17</v>
+      </c>
+      <c r="H248" t="n">
+        <v>31</v>
+      </c>
+      <c r="I248" t="n">
+        <v>123</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.5292596817016602</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.0004348888099438456</v>
+      </c>
+      <c r="D249" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E249" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G249" t="n">
+        <v>17</v>
+      </c>
+      <c r="H249" t="n">
+        <v>31</v>
+      </c>
+      <c r="I249" t="n">
+        <v>123</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.5277957916259766</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.0004336859421741796</v>
+      </c>
+      <c r="D250" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E250" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G250" t="n">
+        <v>17</v>
+      </c>
+      <c r="H250" t="n">
+        <v>31</v>
+      </c>
+      <c r="I250" t="n">
+        <v>123</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.5295195579528809</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.0004351023483589818</v>
+      </c>
+      <c r="D251" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E251" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G251" t="n">
+        <v>17</v>
+      </c>
+      <c r="H251" t="n">
+        <v>31</v>
+      </c>
+      <c r="I251" t="n">
+        <v>123</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.5371334552764893</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.0004413586321088655</v>
+      </c>
+      <c r="D252" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E252" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G252" t="n">
+        <v>17</v>
+      </c>
+      <c r="H252" t="n">
+        <v>31</v>
+      </c>
+      <c r="I252" t="n">
+        <v>123</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.5339810848236084</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.000438768352361223</v>
+      </c>
+      <c r="D253" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E253" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G253" t="n">
+        <v>17</v>
+      </c>
+      <c r="H253" t="n">
+        <v>31</v>
+      </c>
+      <c r="I253" t="n">
+        <v>123</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.5774602890014648</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.0004744948964679251</v>
+      </c>
+      <c r="D254" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E254" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G254" t="n">
+        <v>17</v>
+      </c>
+      <c r="H254" t="n">
+        <v>31</v>
+      </c>
+      <c r="I254" t="n">
+        <v>123</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.5346488952636719</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.000439317087316082</v>
+      </c>
+      <c r="D255" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E255" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G255" t="n">
+        <v>17</v>
+      </c>
+      <c r="H255" t="n">
+        <v>31</v>
+      </c>
+      <c r="I255" t="n">
+        <v>123</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.5752665996551514</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.0004726923579746519</v>
+      </c>
+      <c r="D256" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E256" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G256" t="n">
+        <v>17</v>
+      </c>
+      <c r="H256" t="n">
+        <v>31</v>
+      </c>
+      <c r="I256" t="n">
+        <v>123</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.5332505702972412</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.0004381680939172072</v>
+      </c>
+      <c r="D257" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E257" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G257" t="n">
+        <v>17</v>
+      </c>
+      <c r="H257" t="n">
+        <v>31</v>
+      </c>
+      <c r="I257" t="n">
+        <v>123</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.5860321521759033</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.0004815383337517694</v>
+      </c>
+      <c r="D258" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E258" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G258" t="n">
+        <v>17</v>
+      </c>
+      <c r="H258" t="n">
+        <v>31</v>
+      </c>
+      <c r="I258" t="n">
+        <v>123</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.5430960655212402</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.0004462580653420216</v>
+      </c>
+      <c r="D259" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E259" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G259" t="n">
+        <v>17</v>
+      </c>
+      <c r="H259" t="n">
+        <v>31</v>
+      </c>
+      <c r="I259" t="n">
+        <v>123</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.5689496994018555</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.0004675018072324203</v>
+      </c>
+      <c r="D260" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E260" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G260" t="n">
+        <v>17</v>
+      </c>
+      <c r="H260" t="n">
+        <v>31</v>
+      </c>
+      <c r="I260" t="n">
+        <v>123</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.5360033512115479</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.0004404300338632275</v>
+      </c>
+      <c r="D261" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E261" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G261" t="n">
+        <v>17</v>
+      </c>
+      <c r="H261" t="n">
+        <v>31</v>
+      </c>
+      <c r="I261" t="n">
+        <v>123</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.5780251026153564</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.0004749589996839412</v>
+      </c>
+      <c r="D262" t="n">
+        <v>6276</v>
+      </c>
+      <c r="E262" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2182</v>
+      </c>
+      <c r="G262" t="n">
+        <v>17</v>
+      </c>
+      <c r="H262" t="n">
+        <v>31</v>
+      </c>
+      <c r="I262" t="n">
+        <v>123</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.01297187805175781</v>
+      </c>
+      <c r="B263" t="n">
+        <v>53</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.0002447524160709021</v>
+      </c>
+      <c r="D263" t="n">
+        <v>257</v>
+      </c>
+      <c r="E263" t="n">
+        <v>215</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G263" t="n">
+        <v>12</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.01391863822937012</v>
+      </c>
+      <c r="B264" t="n">
+        <v>53</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.0002626158156484928</v>
+      </c>
+      <c r="D264" t="n">
+        <v>257</v>
+      </c>
+      <c r="E264" t="n">
+        <v>215</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G264" t="n">
+        <v>12</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.01600241661071777</v>
+      </c>
+      <c r="B265" t="n">
+        <v>53</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.0003019323888814674</v>
+      </c>
+      <c r="D265" t="n">
+        <v>257</v>
+      </c>
+      <c r="E265" t="n">
+        <v>215</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G265" t="n">
+        <v>12</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.01401829719543457</v>
+      </c>
+      <c r="B266" t="n">
+        <v>53</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.0002644961734987655</v>
+      </c>
+      <c r="D266" t="n">
+        <v>257</v>
+      </c>
+      <c r="E266" t="n">
+        <v>215</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G266" t="n">
+        <v>12</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.01307988166809082</v>
+      </c>
+      <c r="B267" t="n">
+        <v>53</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.000246790220152657</v>
+      </c>
+      <c r="D267" t="n">
+        <v>257</v>
+      </c>
+      <c r="E267" t="n">
+        <v>215</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G267" t="n">
+        <v>12</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.01397609710693359</v>
+      </c>
+      <c r="B268" t="n">
+        <v>53</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.0002636999454138414</v>
+      </c>
+      <c r="D268" t="n">
+        <v>257</v>
+      </c>
+      <c r="E268" t="n">
+        <v>215</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G268" t="n">
+        <v>12</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.01399898529052734</v>
+      </c>
+      <c r="B269" t="n">
+        <v>53</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.0002641317979344782</v>
+      </c>
+      <c r="D269" t="n">
+        <v>257</v>
+      </c>
+      <c r="E269" t="n">
+        <v>215</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G269" t="n">
+        <v>12</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.01300716400146484</v>
+      </c>
+      <c r="B270" t="n">
+        <v>53</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.0002454181887068838</v>
+      </c>
+      <c r="D270" t="n">
+        <v>257</v>
+      </c>
+      <c r="E270" t="n">
+        <v>215</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G270" t="n">
+        <v>12</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.01299715042114258</v>
+      </c>
+      <c r="B271" t="n">
+        <v>53</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.0002452292532291052</v>
+      </c>
+      <c r="D271" t="n">
+        <v>257</v>
+      </c>
+      <c r="E271" t="n">
+        <v>215</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G271" t="n">
+        <v>12</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.01301479339599609</v>
+      </c>
+      <c r="B272" t="n">
+        <v>53</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.0002455621395470961</v>
+      </c>
+      <c r="D272" t="n">
+        <v>257</v>
+      </c>
+      <c r="E272" t="n">
+        <v>215</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G272" t="n">
+        <v>12</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.0130162239074707</v>
+      </c>
+      <c r="B273" t="n">
+        <v>53</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.0002455891303296359</v>
+      </c>
+      <c r="D273" t="n">
+        <v>257</v>
+      </c>
+      <c r="E273" t="n">
+        <v>215</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G273" t="n">
+        <v>12</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.01190662384033203</v>
+      </c>
+      <c r="B274" t="n">
+        <v>53</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.0002246532800062647</v>
+      </c>
+      <c r="D274" t="n">
+        <v>257</v>
+      </c>
+      <c r="E274" t="n">
+        <v>215</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G274" t="n">
+        <v>12</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.01201438903808594</v>
+      </c>
+      <c r="B275" t="n">
+        <v>53</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.000226686585624263</v>
+      </c>
+      <c r="D275" t="n">
+        <v>257</v>
+      </c>
+      <c r="E275" t="n">
+        <v>215</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G275" t="n">
+        <v>12</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.01311135292053223</v>
+      </c>
+      <c r="B276" t="n">
+        <v>53</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.0002473840173685326</v>
+      </c>
+      <c r="D276" t="n">
+        <v>257</v>
+      </c>
+      <c r="E276" t="n">
+        <v>215</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G276" t="n">
+        <v>12</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.01300191879272461</v>
+      </c>
+      <c r="B277" t="n">
+        <v>53</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.0002453192225042379</v>
+      </c>
+      <c r="D277" t="n">
+        <v>257</v>
+      </c>
+      <c r="E277" t="n">
+        <v>215</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G277" t="n">
+        <v>12</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.01791667938232422</v>
+      </c>
+      <c r="B278" t="n">
+        <v>53</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.0003380505543834758</v>
+      </c>
+      <c r="D278" t="n">
+        <v>257</v>
+      </c>
+      <c r="E278" t="n">
+        <v>215</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G278" t="n">
+        <v>12</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.01299142837524414</v>
+      </c>
+      <c r="B279" t="n">
+        <v>53</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.0002451212900989461</v>
+      </c>
+      <c r="D279" t="n">
+        <v>257</v>
+      </c>
+      <c r="E279" t="n">
+        <v>215</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G279" t="n">
+        <v>12</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.01298165321350098</v>
+      </c>
+      <c r="B280" t="n">
+        <v>53</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.0002449368530849241</v>
+      </c>
+      <c r="D280" t="n">
+        <v>257</v>
+      </c>
+      <c r="E280" t="n">
+        <v>215</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G280" t="n">
+        <v>12</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.01299643516540527</v>
+      </c>
+      <c r="B281" t="n">
+        <v>53</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.0002452157578378354</v>
+      </c>
+      <c r="D281" t="n">
+        <v>257</v>
+      </c>
+      <c r="E281" t="n">
+        <v>215</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G281" t="n">
+        <v>12</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.01299619674682617</v>
+      </c>
+      <c r="B282" t="n">
+        <v>53</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.0002452112593740787</v>
+      </c>
+      <c r="D282" t="n">
+        <v>257</v>
+      </c>
+      <c r="E282" t="n">
+        <v>215</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G282" t="n">
+        <v>12</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
         <v>0.01298832893371582</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B283" t="n">
         <v>53</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C283" t="n">
         <v>0.0002450628100701098</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D283" t="n">
         <v>257</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E283" t="n">
         <v>215</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F283" t="n">
         <v>1880</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G283" t="n">
         <v>12</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
